--- a/instance/zyjk/zentao/核心思想与禅道每日审查_测试.xlsx
+++ b/instance/zyjk/zentao/核心思想与禅道每日审查_测试.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="638">
   <si>
     <t>姓名</t>
   </si>
@@ -1738,6 +1738,141 @@
     <t>2020-06-03 18:14:00</t>
   </si>
   <si>
+    <t>检验检查重复计费情况复现-数据添加测试并发情况等；验证检验检查重复确认问题，目前还有问题解决中</t>
+  </si>
+  <si>
+    <t>2020-06-04 18:03:39</t>
+  </si>
+  <si>
+    <t>挂号后修改患者年龄姓名等数据后在收费这边查询患者数据更新问题验证</t>
+  </si>
+  <si>
+    <t>2020-06-04 18:08:00</t>
+  </si>
+  <si>
+    <t>2020-06-04 18:15:22</t>
+  </si>
+  <si>
+    <t>西医性质家床只选择医联诊断发送处方后会默认中医诊断传值问题验证</t>
+  </si>
+  <si>
+    <t>2020-06-04 18:21:55</t>
+  </si>
+  <si>
+    <t>家床1.5建床、医嘱等全部的icd10、医联、中医诊断查询根据当前版本号测试，并设置常用诊断测试，目前中医诊断设置还有一个问题</t>
+  </si>
+  <si>
+    <t>2020-06-04 18:24:06</t>
+  </si>
+  <si>
+    <t>借款、报销、请假、申请单流程测试/提交bug/验证修复bug</t>
+  </si>
+  <si>
+    <t>2020-06-04 17:55:54</t>
+  </si>
+  <si>
+    <t>出差、外出需求业务梳理</t>
+  </si>
+  <si>
+    <t>2020-06-04 17:56:52</t>
+  </si>
+  <si>
+    <t>回归验证安卓草稿档案未添加残疾证号字段bug问题</t>
+  </si>
+  <si>
+    <t>2020-06-04 17:59:38</t>
+  </si>
+  <si>
+    <t>2020-06-04 18:00:19</t>
+  </si>
+  <si>
+    <t>每日公司核心思想讨论会</t>
+  </si>
+  <si>
+    <t>2020-06-04 17:59:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	验证并关闭开发修复的bug_x000D_
+_x000D_
+_x000D_
+	1.长期医嘱停止时，设置停止时间后，前端未将数据传给后台的问题，bug4628_x000D_
+_x000D_
+_x000D_
+	2.添加长期医嘱时，修改预停时间保存报错，bug4614_x000D_
+_x000D_
+_x000D_
+	3.一级护理打印时，前面的罗马数字一位打印出来，bug4295_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-04 18:07:41</t>
+  </si>
+  <si>
+    <t>测试手动或者自动维护仓批时，配发药数据是否正常</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	测试拆包装药品、不拆包装药品、单条、多条、手动修改仓批、自动修改仓批等多种情况组合下，记账信息是否正常_x000D_
+_x000D_
+_x000D_
+	发现问题：比如有2条请配记录，一个记录请配2盒药，另一个记录请配2盒药。然后第一条记录手动维护发药盒，在勾选2条记录一起执行时，第二条记录也会只发一盒出去（实际应该发2盒）需要重新勾选，重新点发药。考虑这种情况太极端了，医生不会这样操作，暂不处理_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-04 18:18:01</t>
+  </si>
+  <si>
+    <t>核对自定义报表各个字段统计的信息是否正确</t>
+  </si>
+  <si>
+    <t>2020-06-04 18:23:32</t>
+  </si>
+  <si>
+    <t>2020-06-04 17:55:01</t>
+  </si>
+  <si>
+    <t>2020-06-04 17:55:50</t>
+  </si>
+  <si>
+    <t>upv-现场环境-住院/诊疗资料维度/全景视图-检验报告-表结构更改后-功能测试-sql数据插入/页面信息比对</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	检查报告表结构更改：_x000D_
+_x000D_
+_x000D_
+	1住院/诊疗资料维度-功能测试_x000D_
+_x000D_
+_x000D_
+	2sql数据插入_x000D_
+_x000D_
+_x000D_
+	3页面信息比_x000D_
+_x000D_
+_x000D_
+	全景视图：_x000D_
+_x000D_
+_x000D_
+	1检查报告页面信息展示_x000D_
+_x000D_
+_x000D_
+	2字段信息比对_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-04 18:00:30</t>
+  </si>
+  <si>
+    <t>2020-06-04 18:06:10</t>
+  </si>
+  <si>
+    <t>upv-现场环境-全景视图--用药记录/诊疗记录/其他字段-功能测试/页面信息展示/sql数据导入/bug反馈</t>
+  </si>
+  <si>
+    <t>2020-06-04 18:13:55</t>
+  </si>
+  <si>
     <t>日期</t>
   </si>
   <si>
@@ -2169,6 +2304,173 @@
   </si>
   <si>
     <t>身体力行，完成分内事</t>
+  </si>
+  <si>
+    <t>2020.6.4</t>
+  </si>
+  <si>
+    <t>反求诸己</t>
+  </si>
+  <si>
+    <t>当工作没有达到预期效果时，应该先从自身问题上找原因，及时反省总结。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">业精于勤  </t>
+  </si>
+  <si>
+    <t>勤奋是获得成功必不可缺的要素</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逆流而上  </t>
+  </si>
+  <si>
+    <t>不怕困难，解决困难。</t>
+  </si>
+  <si>
+    <t>务实</t>
+  </si>
+  <si>
+    <t>没有不劳而获的工作，更没有坐享其成的收获</t>
+  </si>
+  <si>
+    <t>行动力</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 知行合一，实践出真知</t>
+  </si>
+  <si>
+    <t>2020.6.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日总结与反思自己，思考事情是否能够做的更好</t>
+  </si>
+  <si>
+    <t>反思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不忘初心，方得始终！</t>
+  </si>
+  <si>
+    <t>不忘初心</t>
+  </si>
+  <si>
+    <t>目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定好目标做事才会更有方向、效率更高</t>
+  </si>
+  <si>
+    <t>尽职尽责</t>
+  </si>
+  <si>
+    <t>尽自己最大的努力来完成自己的职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居安思危</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时刻提高警觉，预防祸患，时刻保持头脑清醒，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	检验检查重复计费情况复现-数据添加测试并发情况等；_x000D_
+_x000D_
+	验证检验检查重复确认问题，目前还有问题解决中_x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.对出差、外出审批流程梳理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1.对项目进行构建，下载最新的apk。_x000D_
+_x000D_
+	2.发现档案录入导致程序奔溃，查看日志反馈给开发。_x000D_
+_x000D_
+	3.对旧版app进行卸载重装，回归验证草稿档案没添加残疾证号字段bug。_x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家床1.5建床、医嘱等全部的icd10、医联、中医诊断查询根据当前版本号测试，并设置常用诊断测试，目前中医诊断设置还有一个问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1.对智赢公司人员进行遍历测试_x000D_
+_x000D_
+	2.发现部分bug，如个别人员缺少申请单选项，申请无法转交。_x000D_
+_x000D_
+	3.回归验证开发修复的bug问题_x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西医性质家床只选择医联诊断发送处方后会默认中医诊断传值问题验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日核心思想讨论会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂号后修改患者年龄姓名等数据后在收费这边查询患者数据更新问题验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	全景视图_x000D_
+_x000D_
+	1用药记录字段信息展示/sql数据导入/比对_x000D_
+_x000D_
+	2.治疗字段信息展示/sql数据导入/比对_x000D_
+	3其他字段信息展示/sql数据导入/比对_x000D_
+_x000D_
+	bug反馈及定位：_x000D_
+_x000D_
+	用药记录字段与ui显示不一致，没有显示药品医嘱用量，待开发增加拼接字段信息后验证_x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	对指标：_x000D_
+_x000D_
+	1科室普通门急诊量统计/普通医生接诊人次/专家门诊业务/门诊挂号类型分布/_x000D_
+_x000D_
+	今日普通门诊平均等待时间/门诊使用前十药品排名_x000D_
+_x000D_
+	2床位使用情况/今日在院病人按天分布 进行 sql编写/更改/页面数据比对_x000D_
+_x000D_
+_x000D_
+	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	目前 医院门诊登记、上海白茅岭医院出院病人登记簿、检验科工作量、门急诊挂号次数登记、白茅岭医院医生处方量、白茅岭医院医生处方量明细、白茅岭医院门诊药品收支明细表已核对完毕 _x000D_
+_x000D_
+_x000D_
+剩余上海市白茅岭医院门急诊医药费用汇总表、白茅岭医院住院药品费用明细表、白茅岭医院住院费用一览表 尚未核对完毕 _x000D_
+_x000D_
+_x000D_新发现bug：4649、4650 _x000D_
+_x000D_
+_x000D_
+	关闭bug：4635、4642、4646 _x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> bi-现场环境--门急诊动态监测/住院动态监测-页面指标进行功能测试/sql编写/修改/页面信息展示比对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2329,7 +2631,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2358,13 +2660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2400,7 +2696,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2715,11 +3020,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H312"/>
+  <dimension ref="A1:H262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H263" sqref="H263"/>
+      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E257" sqref="E257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="13.8"/>
@@ -2756,7 +3061,7 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2856,7 +3161,7 @@
       <c r="G6" s="2">
         <v>43966.736655092587</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2879,7 +3184,7 @@
       <c r="G7" s="2">
         <v>43966.736701388887</v>
       </c>
-      <c r="H7" s="21"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" ht="22.2" customHeight="1">
       <c r="A8" s="6" t="s">
@@ -2923,7 +3228,7 @@
       <c r="G9" s="2">
         <v>43966.752511574072</v>
       </c>
-      <c r="H9" s="22"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" ht="27.6" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -2944,7 +3249,7 @@
       <c r="G10" s="2">
         <v>43966.754780092589</v>
       </c>
-      <c r="H10" s="22"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" ht="27.6" customHeight="1">
       <c r="A11" s="6" t="s">
@@ -2965,7 +3270,7 @@
       <c r="G11" s="2">
         <v>43966.759317129632</v>
       </c>
-      <c r="H11" s="22"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="6" t="s">
@@ -2994,7 +3299,7 @@
       <c r="G13" s="2">
         <v>43969.772106481483</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3017,7 +3322,7 @@
       <c r="G14" s="2">
         <v>43969.7734837963</v>
       </c>
-      <c r="H14" s="21"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
@@ -3058,7 +3363,7 @@
       <c r="G16" s="2">
         <v>43969.763402777768</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3081,7 +3386,7 @@
       <c r="G17" s="2">
         <v>43969.76581018517</v>
       </c>
-      <c r="H17" s="21"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="6" t="s">
@@ -3251,7 +3556,7 @@
       <c r="G25" s="2">
         <v>43969.77715277778</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3277,7 +3582,7 @@
       <c r="G26" s="2">
         <v>43969.755578703713</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3303,7 +3608,7 @@
       <c r="G27" s="7">
         <v>43969.75712962963</v>
       </c>
-      <c r="H27" s="21"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" spans="1:8" ht="55.2" customHeight="1">
       <c r="A28" s="6" t="s">
@@ -3327,7 +3632,7 @@
       <c r="G28" s="2">
         <v>43969.761435185188</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3353,7 +3658,7 @@
       <c r="G29" s="2">
         <v>43969.76766203704</v>
       </c>
-      <c r="H29" s="21"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" spans="1:8" ht="27.6" customHeight="1">
       <c r="A30" s="6" t="s">
@@ -3749,7 +4054,7 @@
       <c r="G48" s="2">
         <v>43970.758298611108</v>
       </c>
-      <c r="H48" s="19" t="s">
+      <c r="H48" s="17" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3763,7 +4068,7 @@
       <c r="D49" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="21" t="s">
         <v>107</v>
       </c>
       <c r="F49" s="6">
@@ -3786,7 +4091,7 @@
       <c r="D50" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="E50" s="21" t="s">
         <v>109</v>
       </c>
       <c r="F50" s="6">
@@ -3806,7 +4111,7 @@
       <c r="D51" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E51" s="23" t="s">
+      <c r="E51" s="21" t="s">
         <v>111</v>
       </c>
       <c r="F51" s="6">
@@ -3826,7 +4131,7 @@
       <c r="D52" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="21" t="s">
         <v>113</v>
       </c>
       <c r="F52" s="6">
@@ -3846,7 +4151,7 @@
       <c r="D53" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="21" t="s">
         <v>114</v>
       </c>
       <c r="F53" s="6">
@@ -3886,7 +4191,7 @@
       <c r="D55" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E55" s="23" t="s">
+      <c r="E55" s="21" t="s">
         <v>117</v>
       </c>
       <c r="F55" s="6">
@@ -3909,7 +4214,7 @@
       <c r="D56" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E56" s="23" t="s">
+      <c r="E56" s="21" t="s">
         <v>119</v>
       </c>
       <c r="F56" s="6">
@@ -3932,7 +4237,7 @@
       <c r="D57" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E57" s="23" t="s">
+      <c r="E57" s="21" t="s">
         <v>122</v>
       </c>
       <c r="F57" s="6">
@@ -3952,7 +4257,7 @@
       <c r="D58" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E58" s="23" t="s">
+      <c r="E58" s="21" t="s">
         <v>124</v>
       </c>
       <c r="F58" s="6">
@@ -3975,7 +4280,7 @@
       <c r="D59" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E59" s="23" t="s">
+      <c r="E59" s="21" t="s">
         <v>126</v>
       </c>
       <c r="F59" s="6">
@@ -4021,7 +4326,7 @@
       <c r="D61" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E61" s="23" t="s">
+      <c r="E61" s="21" t="s">
         <v>128</v>
       </c>
       <c r="F61" s="6">
@@ -4087,7 +4392,7 @@
       <c r="D64" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E64" s="23" t="s">
+      <c r="E64" s="21" t="s">
         <v>131</v>
       </c>
       <c r="F64" s="6">
@@ -4133,7 +4438,7 @@
       <c r="D66" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E66" s="23" t="s">
+      <c r="E66" s="21" t="s">
         <v>135</v>
       </c>
       <c r="F66" s="6">
@@ -4176,7 +4481,7 @@
       <c r="D68" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E68" s="23" t="s">
+      <c r="E68" s="21" t="s">
         <v>137</v>
       </c>
       <c r="F68" s="6">
@@ -4196,7 +4501,7 @@
       <c r="D69" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E69" s="23" t="s">
+      <c r="E69" s="21" t="s">
         <v>139</v>
       </c>
       <c r="F69" s="6">
@@ -4219,7 +4524,7 @@
       <c r="D70" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E70" s="23" t="s">
+      <c r="E70" s="21" t="s">
         <v>141</v>
       </c>
       <c r="F70" s="6">
@@ -4242,7 +4547,7 @@
       <c r="D71" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E71" s="23" t="s">
+      <c r="E71" s="21" t="s">
         <v>143</v>
       </c>
       <c r="F71" s="6">
@@ -4265,7 +4570,7 @@
       <c r="D72" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E72" s="23" t="s">
+      <c r="E72" s="21" t="s">
         <v>144</v>
       </c>
       <c r="F72" s="6">
@@ -4328,7 +4633,7 @@
       <c r="D75" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E75" s="23" t="s">
+      <c r="E75" s="21" t="s">
         <v>149</v>
       </c>
       <c r="F75" s="6">
@@ -4351,7 +4656,7 @@
       <c r="D76" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E76" s="23" t="s">
+      <c r="E76" s="21" t="s">
         <v>152</v>
       </c>
       <c r="F76" s="6">
@@ -4394,7 +4699,7 @@
       <c r="D78" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E78" s="23" t="s">
+      <c r="E78" s="21" t="s">
         <v>157</v>
       </c>
       <c r="F78" s="6">
@@ -4443,7 +4748,7 @@
       <c r="D80" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E80" s="23" t="s">
+      <c r="E80" s="21" t="s">
         <v>161</v>
       </c>
       <c r="F80" s="6">
@@ -4532,7 +4837,7 @@
       <c r="D84" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E84" s="23" t="s">
+      <c r="E84" s="21" t="s">
         <v>165</v>
       </c>
       <c r="F84" s="6">
@@ -4555,7 +4860,7 @@
       <c r="D85" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E85" s="23" t="s">
+      <c r="E85" s="21" t="s">
         <v>167</v>
       </c>
       <c r="F85" s="6">
@@ -4578,7 +4883,7 @@
       <c r="D86" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E86" s="23" t="s">
+      <c r="E86" s="21" t="s">
         <v>170</v>
       </c>
       <c r="F86" s="6">
@@ -4601,7 +4906,7 @@
       <c r="D87" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E87" s="23" t="s">
+      <c r="E87" s="21" t="s">
         <v>172</v>
       </c>
       <c r="F87" s="6">
@@ -4612,7 +4917,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="118.8" customHeight="1">
-      <c r="A88" s="24" t="s">
+      <c r="A88" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B88" s="6" t="s">
@@ -4621,7 +4926,7 @@
       <c r="D88" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E88" s="25" t="s">
+      <c r="E88" s="23" t="s">
         <v>174</v>
       </c>
       <c r="F88" s="6">
@@ -4644,7 +4949,7 @@
       <c r="D89" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E89" s="23" t="s">
+      <c r="E89" s="21" t="s">
         <v>175</v>
       </c>
       <c r="F89" s="6">
@@ -4664,7 +4969,7 @@
       <c r="D90" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E90" s="23" t="s">
+      <c r="E90" s="21" t="s">
         <v>176</v>
       </c>
       <c r="F90" s="6">
@@ -4707,7 +5012,7 @@
       <c r="D92" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="E92" s="23" t="s">
+      <c r="E92" s="21" t="s">
         <v>178</v>
       </c>
       <c r="F92" s="6">
@@ -4727,7 +5032,7 @@
       <c r="D93" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E93" s="23" t="s">
+      <c r="E93" s="21" t="s">
         <v>180</v>
       </c>
       <c r="F93" s="6">
@@ -4747,7 +5052,7 @@
       <c r="D94" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="E94" s="23" t="s">
+      <c r="E94" s="21" t="s">
         <v>182</v>
       </c>
       <c r="F94" s="6">
@@ -4790,7 +5095,7 @@
       <c r="D96" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="E96" s="23" t="s">
+      <c r="E96" s="21" t="s">
         <v>184</v>
       </c>
       <c r="F96" s="6">
@@ -4816,7 +5121,7 @@
       <c r="D97" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E97" s="23" t="s">
+      <c r="E97" s="21" t="s">
         <v>187</v>
       </c>
       <c r="F97" s="6">
@@ -4919,7 +5224,7 @@
       <c r="D102" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E102" s="23" t="s">
+      <c r="E102" s="21" t="s">
         <v>194</v>
       </c>
       <c r="F102" s="6">
@@ -4988,7 +5293,7 @@
       <c r="D105" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="E105" s="23" t="s">
+      <c r="E105" s="21" t="s">
         <v>199</v>
       </c>
       <c r="F105" s="6">
@@ -5011,7 +5316,7 @@
       <c r="D106" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E106" s="23" t="s">
+      <c r="E106" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F106" s="6">
@@ -5088,7 +5393,7 @@
       <c r="D110" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="E110" s="23" t="s">
+      <c r="E110" s="21" t="s">
         <v>204</v>
       </c>
       <c r="F110" s="6">
@@ -5111,7 +5416,7 @@
       <c r="D111" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E111" s="23" t="s">
+      <c r="E111" s="21" t="s">
         <v>206</v>
       </c>
       <c r="F111" s="6">
@@ -5134,7 +5439,7 @@
       <c r="D112" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E112" s="23" t="s">
+      <c r="E112" s="21" t="s">
         <v>208</v>
       </c>
       <c r="F112" s="6">
@@ -5157,7 +5462,7 @@
       <c r="D113" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E113" s="23" t="s">
+      <c r="E113" s="21" t="s">
         <v>210</v>
       </c>
       <c r="F113" s="6">
@@ -5183,7 +5488,7 @@
       <c r="D114" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E114" s="23" t="s">
+      <c r="E114" s="21" t="s">
         <v>213</v>
       </c>
       <c r="F114" s="6">
@@ -5246,7 +5551,7 @@
       <c r="D117" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E117" s="23" t="s">
+      <c r="E117" s="21" t="s">
         <v>216</v>
       </c>
       <c r="F117" s="6">
@@ -5272,7 +5577,7 @@
       <c r="D118" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="E118" s="23" t="s">
+      <c r="E118" s="21" t="s">
         <v>218</v>
       </c>
       <c r="F118" s="6">
@@ -5378,7 +5683,7 @@
       <c r="D123" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E123" s="23" t="s">
+      <c r="E123" s="21" t="s">
         <v>224</v>
       </c>
       <c r="F123" s="6">
@@ -5418,7 +5723,7 @@
       <c r="D125" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E125" s="23" t="s">
+      <c r="E125" s="21" t="s">
         <v>226</v>
       </c>
       <c r="F125" s="6">
@@ -5441,7 +5746,7 @@
       <c r="D126" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E126" s="23" t="s">
+      <c r="E126" s="21" t="s">
         <v>229</v>
       </c>
       <c r="F126" s="6">
@@ -5590,7 +5895,7 @@
       <c r="D133" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="E133" s="23" t="s">
+      <c r="E133" s="21" t="s">
         <v>240</v>
       </c>
       <c r="F133" s="6">
@@ -5633,7 +5938,7 @@
       <c r="D135" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E135" s="23" t="s">
+      <c r="E135" s="21" t="s">
         <v>242</v>
       </c>
       <c r="F135" s="6">
@@ -5676,7 +5981,7 @@
       <c r="D137" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E137" s="23" t="s">
+      <c r="E137" s="21" t="s">
         <v>244</v>
       </c>
       <c r="F137" s="6">
@@ -5699,7 +6004,7 @@
       <c r="D138" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="E138" s="23" t="s">
+      <c r="E138" s="21" t="s">
         <v>246</v>
       </c>
       <c r="F138" s="6">
@@ -5719,7 +6024,7 @@
       <c r="D139" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="E139" s="23" t="s">
+      <c r="E139" s="21" t="s">
         <v>247</v>
       </c>
       <c r="F139" s="6">
@@ -5739,7 +6044,7 @@
       <c r="D140" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E140" s="23" t="s">
+      <c r="E140" s="21" t="s">
         <v>249</v>
       </c>
       <c r="F140" s="6">
@@ -5759,7 +6064,7 @@
       <c r="D141" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E141" s="23" t="s">
+      <c r="E141" s="21" t="s">
         <v>250</v>
       </c>
       <c r="F141" s="6">
@@ -5779,7 +6084,7 @@
       <c r="D142" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="E142" s="23" t="s">
+      <c r="E142" s="21" t="s">
         <v>252</v>
       </c>
       <c r="F142" s="6">
@@ -5802,7 +6107,7 @@
       <c r="D143" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="E143" s="23" t="s">
+      <c r="E143" s="21" t="s">
         <v>255</v>
       </c>
       <c r="F143" s="6">
@@ -5842,7 +6147,7 @@
       <c r="D145" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E145" s="23" t="s">
+      <c r="E145" s="21" t="s">
         <v>257</v>
       </c>
       <c r="F145" s="6">
@@ -5908,7 +6213,7 @@
       <c r="D148" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="E148" s="23" t="s">
+      <c r="E148" s="21" t="s">
         <v>262</v>
       </c>
       <c r="F148" s="6">
@@ -5928,7 +6233,7 @@
       <c r="D149" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E149" s="23" t="s">
+      <c r="E149" s="21" t="s">
         <v>264</v>
       </c>
       <c r="F149" s="6">
@@ -5951,7 +6256,7 @@
       <c r="D150" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="E150" s="23" t="s">
+      <c r="E150" s="21" t="s">
         <v>266</v>
       </c>
       <c r="F150" s="6">
@@ -5977,7 +6282,7 @@
       <c r="D151" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="E151" s="23" t="s">
+      <c r="E151" s="21" t="s">
         <v>268</v>
       </c>
       <c r="F151" s="6">
@@ -6000,7 +6305,7 @@
       <c r="D152" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="E152" s="23" t="s">
+      <c r="E152" s="21" t="s">
         <v>270</v>
       </c>
       <c r="F152" s="6">
@@ -6023,7 +6328,7 @@
       <c r="D153" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="E153" s="23" t="s">
+      <c r="E153" s="21" t="s">
         <v>272</v>
       </c>
       <c r="F153" s="6">
@@ -6120,7 +6425,7 @@
       <c r="D158" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="E158" s="23" t="s">
+      <c r="E158" s="21" t="s">
         <v>277</v>
       </c>
       <c r="F158" s="6">
@@ -6143,7 +6448,7 @@
       <c r="D159" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="E159" s="23" t="s">
+      <c r="E159" s="21" t="s">
         <v>279</v>
       </c>
       <c r="F159" s="6">
@@ -6166,7 +6471,7 @@
       <c r="D160" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E160" s="23" t="s">
+      <c r="E160" s="21" t="s">
         <v>281</v>
       </c>
       <c r="F160" s="6">
@@ -6189,7 +6494,7 @@
       <c r="D161" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="E161" s="23" t="s">
+      <c r="E161" s="21" t="s">
         <v>283</v>
       </c>
       <c r="F161" s="6">
@@ -6232,7 +6537,7 @@
       <c r="D163" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="E163" s="23" t="s">
+      <c r="E163" s="21" t="s">
         <v>286</v>
       </c>
       <c r="F163" s="6">
@@ -6275,7 +6580,7 @@
       <c r="D165" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="E165" s="23" t="s">
+      <c r="E165" s="21" t="s">
         <v>288</v>
       </c>
       <c r="F165" s="6">
@@ -6298,7 +6603,7 @@
       <c r="D166" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="E166" s="23" t="s">
+      <c r="E166" s="21" t="s">
         <v>290</v>
       </c>
       <c r="F166" s="6">
@@ -6321,7 +6626,7 @@
       <c r="D167" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="E167" s="23" t="s">
+      <c r="E167" s="21" t="s">
         <v>292</v>
       </c>
       <c r="F167" s="6">
@@ -6404,7 +6709,7 @@
       <c r="D171" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="E171" s="23" t="s">
+      <c r="E171" s="21" t="s">
         <v>295</v>
       </c>
       <c r="F171" s="6">
@@ -6430,7 +6735,7 @@
       <c r="D172" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="E172" s="23" t="s">
+      <c r="E172" s="21" t="s">
         <v>297</v>
       </c>
       <c r="F172" s="6">
@@ -6453,7 +6758,7 @@
       <c r="D173" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="E173" s="23" t="s">
+      <c r="E173" s="21" t="s">
         <v>299</v>
       </c>
       <c r="F173" s="6">
@@ -6496,7 +6801,7 @@
       <c r="D175" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="E175" s="23" t="s">
+      <c r="E175" s="21" t="s">
         <v>300</v>
       </c>
       <c r="F175" s="6">
@@ -6542,7 +6847,7 @@
       <c r="D177" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="E177" s="23" t="s">
+      <c r="E177" s="21" t="s">
         <v>304</v>
       </c>
       <c r="F177" s="6">
@@ -6565,7 +6870,7 @@
       <c r="D178" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="E178" s="23" t="s">
+      <c r="E178" s="21" t="s">
         <v>306</v>
       </c>
       <c r="F178" s="6">
@@ -6588,7 +6893,7 @@
       <c r="D179" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="E179" s="23" t="s">
+      <c r="E179" s="21" t="s">
         <v>308</v>
       </c>
       <c r="F179" s="6">
@@ -6648,7 +6953,7 @@
       <c r="D182" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="E182" s="23" t="s">
+      <c r="E182" s="21" t="s">
         <v>310</v>
       </c>
       <c r="F182" s="6">
@@ -6668,7 +6973,7 @@
       <c r="D183" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="E183" s="23" t="s">
+      <c r="E183" s="21" t="s">
         <v>312</v>
       </c>
       <c r="F183" s="6">
@@ -6688,7 +6993,7 @@
       <c r="D184" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="E184" s="23" t="s">
+      <c r="E184" s="21" t="s">
         <v>314</v>
       </c>
       <c r="F184" s="6">
@@ -6751,7 +7056,7 @@
       <c r="D187" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="E187" s="23" t="s">
+      <c r="E187" s="21" t="s">
         <v>317</v>
       </c>
       <c r="F187" s="6">
@@ -6777,7 +7082,7 @@
       <c r="D188" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="E188" s="23" t="s">
+      <c r="E188" s="21" t="s">
         <v>319</v>
       </c>
       <c r="F188" s="6">
@@ -6803,7 +7108,7 @@
       <c r="D189" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="E189" s="23" t="s">
+      <c r="E189" s="21" t="s">
         <v>321</v>
       </c>
       <c r="F189" s="6">
@@ -6829,7 +7134,7 @@
       <c r="D190" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="E190" s="23" t="s">
+      <c r="E190" s="21" t="s">
         <v>323</v>
       </c>
       <c r="F190" s="6">
@@ -6852,7 +7157,7 @@
       <c r="D191" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="E191" s="23" t="s">
+      <c r="E191" s="21" t="s">
         <v>325</v>
       </c>
       <c r="F191" s="6">
@@ -6875,7 +7180,7 @@
       <c r="D192" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="E192" s="23" t="s">
+      <c r="E192" s="21" t="s">
         <v>326</v>
       </c>
       <c r="F192" s="6">
@@ -6938,7 +7243,7 @@
       <c r="D195" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="E195" s="23" t="s">
+      <c r="E195" s="21" t="s">
         <v>330</v>
       </c>
       <c r="F195" s="6">
@@ -6961,7 +7266,7 @@
       <c r="D196" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="E196" s="23" t="s">
+      <c r="E196" s="21" t="s">
         <v>332</v>
       </c>
       <c r="F196" s="6">
@@ -6984,7 +7289,7 @@
       <c r="D197" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="E197" s="23" t="s">
+      <c r="E197" s="21" t="s">
         <v>334</v>
       </c>
       <c r="F197" s="6">
@@ -7061,7 +7366,7 @@
       <c r="D201" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="E201" s="23" t="s">
+      <c r="E201" s="21" t="s">
         <v>336</v>
       </c>
       <c r="F201" s="6">
@@ -7084,7 +7389,7 @@
       <c r="D202" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="E202" s="23" t="s">
+      <c r="E202" s="21" t="s">
         <v>338</v>
       </c>
       <c r="F202" s="6">
@@ -7107,7 +7412,7 @@
       <c r="D203" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="E203" s="23" t="s">
+      <c r="E203" s="21" t="s">
         <v>340</v>
       </c>
       <c r="F203" s="6">
@@ -7127,7 +7432,7 @@
       <c r="D204" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="E204" s="23" t="s">
+      <c r="E204" s="21" t="s">
         <v>342</v>
       </c>
       <c r="F204" s="6">
@@ -7170,7 +7475,7 @@
       <c r="D206" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="E206" s="23" t="s">
+      <c r="E206" s="21" t="s">
         <v>344</v>
       </c>
       <c r="F206" s="6">
@@ -7196,7 +7501,7 @@
       <c r="D207" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="E207" s="23" t="s">
+      <c r="E207" s="21" t="s">
         <v>346</v>
       </c>
       <c r="F207" s="6">
@@ -7242,7 +7547,7 @@
       <c r="D209" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E209" s="23" t="s">
+      <c r="E209" s="21" t="s">
         <v>348</v>
       </c>
       <c r="F209" s="6">
@@ -7268,7 +7573,7 @@
       <c r="D210" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E210" s="23" t="s">
+      <c r="E210" s="21" t="s">
         <v>350</v>
       </c>
       <c r="F210" s="6">
@@ -7291,7 +7596,7 @@
       <c r="D211" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="E211" s="23" t="s">
+      <c r="E211" s="21" t="s">
         <v>351</v>
       </c>
       <c r="F211" s="6">
@@ -7334,7 +7639,7 @@
       <c r="D213" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="E213" s="23" t="s">
+      <c r="E213" s="21" t="s">
         <v>353</v>
       </c>
       <c r="F213" s="6">
@@ -7357,7 +7662,7 @@
       <c r="D214" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="E214" s="23" t="s">
+      <c r="E214" s="21" t="s">
         <v>355</v>
       </c>
       <c r="F214" s="6">
@@ -7397,7 +7702,7 @@
       <c r="D216" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="E216" s="23" t="s">
+      <c r="E216" s="21" t="s">
         <v>358</v>
       </c>
       <c r="F216" s="6">
@@ -7437,7 +7742,7 @@
       <c r="D218" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="E218" s="23" t="s">
+      <c r="E218" s="21" t="s">
         <v>361</v>
       </c>
       <c r="F218" s="6">
@@ -7503,7 +7808,7 @@
       <c r="D221" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="E221" s="23" t="s">
+      <c r="E221" s="21" t="s">
         <v>367</v>
       </c>
       <c r="F221" s="6">
@@ -7526,7 +7831,7 @@
       <c r="D222" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="E222" s="23" t="s">
+      <c r="E222" s="21" t="s">
         <v>369</v>
       </c>
       <c r="F222" s="6">
@@ -7549,7 +7854,7 @@
       <c r="D223" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="E223" s="23" t="s">
+      <c r="E223" s="21" t="s">
         <v>371</v>
       </c>
       <c r="F223" s="6">
@@ -7595,7 +7900,7 @@
       <c r="D225" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="E225" s="23" t="s">
+      <c r="E225" s="21" t="s">
         <v>374</v>
       </c>
       <c r="F225" s="6">
@@ -7621,7 +7926,7 @@
       <c r="D226" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="E226" s="23" t="s">
+      <c r="E226" s="21" t="s">
         <v>376</v>
       </c>
       <c r="F226" s="6">
@@ -7673,6 +7978,9 @@
       <c r="G228" s="6" t="s">
         <v>380</v>
       </c>
+      <c r="H228" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="6" t="s">
@@ -7696,6 +8004,9 @@
       <c r="G229" s="6" t="s">
         <v>384</v>
       </c>
+      <c r="H229" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="6" t="s">
@@ -7719,6 +8030,9 @@
       <c r="G230" s="6" t="s">
         <v>388</v>
       </c>
+      <c r="H230" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="6" t="s">
@@ -7765,6 +8079,9 @@
       <c r="G232" s="6" t="s">
         <v>392</v>
       </c>
+      <c r="H232" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="6" t="s">
@@ -7788,6 +8105,9 @@
       <c r="G233" s="6" t="s">
         <v>395</v>
       </c>
+      <c r="H233" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="234" spans="1:8" ht="55.2" customHeight="1">
       <c r="A234" s="6" t="s">
@@ -7811,6 +8131,9 @@
       <c r="G234" s="6" t="s">
         <v>399</v>
       </c>
+      <c r="H234" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="6" t="s">
@@ -7878,6 +8201,9 @@
       <c r="G237" s="6" t="s">
         <v>407</v>
       </c>
+      <c r="H237" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="238" spans="1:8" ht="82.8" customHeight="1">
       <c r="A238" s="6" t="s">
@@ -7901,6 +8227,9 @@
       <c r="G238" s="6" t="s">
         <v>410</v>
       </c>
+      <c r="H238" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="6" t="s">
@@ -7968,6 +8297,9 @@
       <c r="G241" s="6" t="s">
         <v>418</v>
       </c>
+      <c r="H241" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="242" spans="1:8" ht="165.6" customHeight="1">
       <c r="A242" s="6" t="s">
@@ -7991,6 +8323,9 @@
       <c r="G242" s="6" t="s">
         <v>422</v>
       </c>
+      <c r="H242" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="243" spans="1:8" ht="193.2" customHeight="1">
       <c r="A243" s="6" t="s">
@@ -8014,6 +8349,9 @@
       <c r="G243" s="6" t="s">
         <v>425</v>
       </c>
+      <c r="H243" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="6" t="s">
@@ -8036,481 +8374,467 @@
         <v>426</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
-      <c r="A245" s="16"/>
-      <c r="B245" s="16"/>
-      <c r="C245" s="16"/>
-      <c r="D245" s="6"/>
-      <c r="E245" s="6"/>
-      <c r="F245" s="16"/>
-      <c r="G245" s="16"/>
-      <c r="H245" s="6"/>
+    <row r="245" spans="1:8" ht="82.8">
+      <c r="A245" t="s">
+        <v>8</v>
+      </c>
+      <c r="B245" t="s">
+        <v>9</v>
+      </c>
+      <c r="C245" t="s">
+        <v>377</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="F245" t="s">
+        <v>406</v>
+      </c>
+      <c r="G245" t="s">
+        <v>428</v>
+      </c>
+      <c r="H245" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="246" spans="1:8">
-      <c r="A246" s="16"/>
-      <c r="B246" s="16"/>
-      <c r="C246" s="16"/>
-      <c r="D246" s="6"/>
-      <c r="E246" s="6"/>
-      <c r="F246" s="16"/>
-      <c r="G246" s="16"/>
-      <c r="H246" s="6"/>
+      <c r="A246" t="s">
+        <v>8</v>
+      </c>
+      <c r="B246" t="s">
+        <v>9</v>
+      </c>
+      <c r="C246" t="s">
+        <v>377</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E246" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="F246" t="s">
+        <v>400</v>
+      </c>
+      <c r="G246" t="s">
+        <v>430</v>
+      </c>
+      <c r="H246" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="247" spans="1:8">
-      <c r="A247" s="16"/>
-      <c r="B247" s="16"/>
-      <c r="C247" s="16"/>
-      <c r="D247" s="6"/>
-      <c r="E247" s="6"/>
-      <c r="F247" s="16"/>
-      <c r="G247" s="16"/>
-      <c r="H247" s="6"/>
+      <c r="A247" t="s">
+        <v>8</v>
+      </c>
+      <c r="B247" t="s">
+        <v>38</v>
+      </c>
+      <c r="C247" t="s">
+        <v>377</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E247" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="F247" t="s">
+        <v>400</v>
+      </c>
+      <c r="G247" t="s">
+        <v>431</v>
+      </c>
+      <c r="H247" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="248" spans="1:8">
-      <c r="A248" s="16"/>
-      <c r="B248" s="16"/>
-      <c r="C248" s="16"/>
-      <c r="D248" s="6"/>
-      <c r="E248" s="6"/>
-      <c r="F248" s="16"/>
-      <c r="G248" s="16"/>
-      <c r="H248" s="6"/>
+      <c r="A248" t="s">
+        <v>8</v>
+      </c>
+      <c r="B248" t="s">
+        <v>381</v>
+      </c>
+      <c r="C248" t="s">
+        <v>377</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="E248" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="F248" t="s">
+        <v>379</v>
+      </c>
+      <c r="G248" t="s">
+        <v>433</v>
+      </c>
+      <c r="H248" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="249" spans="1:8">
-      <c r="A249" s="16"/>
-      <c r="B249" s="16"/>
-      <c r="C249" s="16"/>
-      <c r="D249" s="6"/>
-      <c r="E249" s="6"/>
-      <c r="F249" s="16"/>
-      <c r="G249" s="16"/>
-      <c r="H249" s="6"/>
-    </row>
-    <row r="250" spans="1:8">
-      <c r="A250" s="16"/>
-      <c r="B250" s="16"/>
-      <c r="C250" s="16"/>
-      <c r="D250" s="6"/>
-      <c r="E250" s="6"/>
-      <c r="F250" s="16"/>
-      <c r="G250" s="16"/>
-      <c r="H250" s="6"/>
+      <c r="A249" t="s">
+        <v>8</v>
+      </c>
+      <c r="B249" t="s">
+        <v>381</v>
+      </c>
+      <c r="C249" t="s">
+        <v>377</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="F249" t="s">
+        <v>406</v>
+      </c>
+      <c r="G249" t="s">
+        <v>435</v>
+      </c>
+      <c r="H249" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="110.4">
+      <c r="A250" t="s">
+        <v>16</v>
+      </c>
+      <c r="B250" t="s">
+        <v>359</v>
+      </c>
+      <c r="C250" t="s">
+        <v>377</v>
+      </c>
+      <c r="D250" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="F250" t="s">
+        <v>383</v>
+      </c>
+      <c r="G250" t="s">
+        <v>437</v>
+      </c>
+      <c r="H250" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="251" spans="1:8">
-      <c r="A251" s="16"/>
-      <c r="B251" s="16"/>
-      <c r="C251" s="16"/>
-      <c r="D251" s="6"/>
-      <c r="E251" s="6"/>
-      <c r="F251" s="16"/>
-      <c r="G251" s="16"/>
-      <c r="H251" s="6"/>
-    </row>
-    <row r="252" spans="1:8">
-      <c r="A252" s="16"/>
-      <c r="B252" s="16"/>
-      <c r="C252" s="16"/>
-      <c r="D252" s="6"/>
-      <c r="E252" s="6"/>
-      <c r="F252" s="16"/>
-      <c r="G252" s="16"/>
-      <c r="H252" s="6"/>
+      <c r="A251" t="s">
+        <v>16</v>
+      </c>
+      <c r="B251" t="s">
+        <v>359</v>
+      </c>
+      <c r="C251" t="s">
+        <v>377</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E251" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="F251" t="s">
+        <v>379</v>
+      </c>
+      <c r="G251" t="s">
+        <v>439</v>
+      </c>
+      <c r="H251" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="124.2">
+      <c r="A252" t="s">
+        <v>16</v>
+      </c>
+      <c r="B252" t="s">
+        <v>17</v>
+      </c>
+      <c r="C252" t="s">
+        <v>377</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F252" t="s">
+        <v>421</v>
+      </c>
+      <c r="G252" t="s">
+        <v>441</v>
+      </c>
+      <c r="H252" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="253" spans="1:8">
-      <c r="A253" s="16"/>
-      <c r="B253" s="16"/>
-      <c r="C253" s="16"/>
-      <c r="D253" s="6"/>
-      <c r="E253" s="6"/>
-      <c r="F253" s="16"/>
-      <c r="G253" s="16"/>
-      <c r="H253" s="6"/>
+      <c r="A253" t="s">
+        <v>16</v>
+      </c>
+      <c r="B253" t="s">
+        <v>38</v>
+      </c>
+      <c r="C253" t="s">
+        <v>377</v>
+      </c>
+      <c r="D253" t="s">
+        <v>85</v>
+      </c>
+      <c r="E253"/>
+      <c r="F253" t="s">
+        <v>400</v>
+      </c>
+      <c r="G253" t="s">
+        <v>442</v>
+      </c>
+      <c r="H253" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="254" spans="1:8">
-      <c r="A254" s="16"/>
-      <c r="B254" s="16"/>
-      <c r="C254" s="16"/>
-      <c r="D254" s="6"/>
-      <c r="E254" s="6"/>
-      <c r="F254" s="16"/>
-      <c r="G254" s="16"/>
-      <c r="H254" s="6"/>
+      <c r="A254" t="s">
+        <v>32</v>
+      </c>
+      <c r="B254" t="s">
+        <v>38</v>
+      </c>
+      <c r="C254" t="s">
+        <v>377</v>
+      </c>
+      <c r="D254" t="s">
+        <v>443</v>
+      </c>
+      <c r="E254" t="s">
+        <v>115</v>
+      </c>
+      <c r="F254" t="s">
+        <v>400</v>
+      </c>
+      <c r="G254" t="s">
+        <v>444</v>
+      </c>
+      <c r="H254" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="255" spans="1:8">
-      <c r="A255" s="16"/>
-      <c r="B255" s="16"/>
-      <c r="C255" s="16"/>
-      <c r="D255" s="6"/>
-      <c r="E255" s="6"/>
-      <c r="F255" s="16"/>
-      <c r="G255" s="16"/>
-      <c r="H255" s="6"/>
+      <c r="A255" t="s">
+        <v>32</v>
+      </c>
+      <c r="B255" t="s">
+        <v>9</v>
+      </c>
+      <c r="C255" t="s">
+        <v>377</v>
+      </c>
+      <c r="D255" t="s">
+        <v>259</v>
+      </c>
+      <c r="E255" t="s">
+        <v>445</v>
+      </c>
+      <c r="F255" t="s">
+        <v>398</v>
+      </c>
+      <c r="G255" t="s">
+        <v>446</v>
+      </c>
+      <c r="H255" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="256" spans="1:8">
-      <c r="A256" s="16"/>
-      <c r="B256" s="16"/>
-      <c r="C256" s="16"/>
-      <c r="D256" s="6"/>
-      <c r="E256" s="6"/>
-      <c r="F256" s="16"/>
-      <c r="G256" s="16"/>
-      <c r="H256" s="6"/>
-    </row>
-    <row r="257" spans="1:8">
-      <c r="A257" s="16"/>
-      <c r="B257" s="16"/>
-      <c r="C257" s="16"/>
-      <c r="D257" s="6"/>
-      <c r="E257" s="6"/>
-      <c r="F257" s="16"/>
-      <c r="G257" s="16"/>
-      <c r="H257" s="6"/>
+      <c r="A256" t="s">
+        <v>32</v>
+      </c>
+      <c r="B256" t="s">
+        <v>9</v>
+      </c>
+      <c r="C256" t="s">
+        <v>377</v>
+      </c>
+      <c r="D256" t="s">
+        <v>447</v>
+      </c>
+      <c r="E256" t="s">
+        <v>448</v>
+      </c>
+      <c r="F256" t="s">
+        <v>387</v>
+      </c>
+      <c r="G256" t="s">
+        <v>449</v>
+      </c>
+      <c r="H256" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="220.8">
+      <c r="A257" t="s">
+        <v>32</v>
+      </c>
+      <c r="B257" t="s">
+        <v>9</v>
+      </c>
+      <c r="C257" t="s">
+        <v>377</v>
+      </c>
+      <c r="D257" t="s">
+        <v>450</v>
+      </c>
+      <c r="E257" s="27" t="s">
+        <v>636</v>
+      </c>
+      <c r="F257" t="s">
+        <v>383</v>
+      </c>
+      <c r="G257" t="s">
+        <v>451</v>
+      </c>
+      <c r="H257" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="258" spans="1:8">
-      <c r="A258" s="16"/>
-      <c r="B258" s="16"/>
-      <c r="C258" s="16"/>
-      <c r="D258" s="6"/>
-      <c r="E258" s="6"/>
-      <c r="F258" s="16"/>
-      <c r="G258" s="16"/>
-      <c r="H258" s="6"/>
+      <c r="A258" t="s">
+        <v>22</v>
+      </c>
+      <c r="B258" t="s">
+        <v>38</v>
+      </c>
+      <c r="C258" t="s">
+        <v>377</v>
+      </c>
+      <c r="D258" t="s">
+        <v>85</v>
+      </c>
+      <c r="E258"/>
+      <c r="F258" t="s">
+        <v>400</v>
+      </c>
+      <c r="G258" t="s">
+        <v>452</v>
+      </c>
+      <c r="H258" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="259" spans="1:8">
-      <c r="A259" s="16"/>
-      <c r="B259" s="16"/>
-      <c r="C259" s="16"/>
-      <c r="D259" s="6"/>
-      <c r="E259" s="6"/>
-      <c r="F259" s="16"/>
-      <c r="G259" s="16"/>
-      <c r="H259" s="6"/>
+      <c r="A259" t="s">
+        <v>22</v>
+      </c>
+      <c r="B259" t="s">
+        <v>23</v>
+      </c>
+      <c r="C259" t="s">
+        <v>27</v>
+      </c>
+      <c r="D259" t="s">
+        <v>97</v>
+      </c>
+      <c r="E259"/>
+      <c r="F259" t="s">
+        <v>400</v>
+      </c>
+      <c r="G259" t="s">
+        <v>453</v>
+      </c>
+      <c r="H259" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="260" spans="1:8">
-      <c r="A260" s="16"/>
-      <c r="B260" s="16"/>
-      <c r="C260" s="16"/>
-      <c r="D260" s="6"/>
-      <c r="E260" s="6"/>
-      <c r="F260" s="16"/>
-      <c r="G260" s="16"/>
-      <c r="H260" s="6"/>
-    </row>
-    <row r="261" spans="1:8">
-      <c r="A261" s="16"/>
-      <c r="B261" s="16"/>
-      <c r="C261" s="16"/>
-      <c r="D261" s="6"/>
-      <c r="E261" s="6"/>
-      <c r="F261" s="16"/>
-      <c r="G261" s="16"/>
-      <c r="H261" s="6"/>
-    </row>
-    <row r="262" spans="1:8">
-      <c r="A262"/>
-      <c r="B262"/>
-      <c r="C262"/>
-      <c r="D262" s="6"/>
-      <c r="E262" s="6"/>
-      <c r="F262"/>
-      <c r="G262"/>
-      <c r="H262"/>
-    </row>
-    <row r="263" spans="1:8">
-      <c r="A263"/>
-      <c r="B263"/>
-      <c r="C263"/>
-      <c r="D263" s="6"/>
-      <c r="E263" s="6"/>
-      <c r="F263"/>
-      <c r="G263"/>
-      <c r="H263"/>
-    </row>
-    <row r="264" spans="1:8">
-      <c r="A264"/>
-      <c r="B264"/>
-      <c r="C264"/>
-      <c r="D264" s="6"/>
-      <c r="E264" s="6"/>
-      <c r="F264"/>
-      <c r="G264"/>
-      <c r="H264"/>
-    </row>
-    <row r="265" spans="1:8">
-      <c r="A265"/>
-      <c r="B265"/>
-      <c r="C265"/>
-      <c r="D265" s="6"/>
-      <c r="E265" s="6"/>
-      <c r="F265"/>
-      <c r="G265"/>
-      <c r="H265"/>
-    </row>
-    <row r="266" spans="1:8">
-      <c r="A266"/>
-      <c r="B266"/>
-      <c r="C266"/>
-      <c r="D266" s="6"/>
-      <c r="E266" s="6"/>
-      <c r="F266"/>
-      <c r="G266"/>
-      <c r="H266"/>
-    </row>
-    <row r="267" spans="1:8">
-      <c r="A267"/>
-      <c r="B267"/>
-      <c r="C267"/>
-      <c r="D267" s="6"/>
-      <c r="E267" s="6"/>
-      <c r="F267"/>
-      <c r="G267"/>
-      <c r="H267"/>
-    </row>
-    <row r="268" spans="1:8">
-      <c r="A268"/>
-      <c r="B268"/>
-      <c r="C268"/>
-      <c r="D268" s="6"/>
-      <c r="E268" s="6"/>
-      <c r="F268"/>
-      <c r="G268"/>
-      <c r="H268"/>
-    </row>
-    <row r="269" spans="1:8">
-      <c r="A269"/>
-      <c r="B269"/>
-      <c r="C269"/>
-      <c r="D269" s="6"/>
-      <c r="E269" s="6"/>
-      <c r="F269"/>
-      <c r="G269"/>
-      <c r="H269"/>
-    </row>
-    <row r="270" spans="1:8">
-      <c r="A270"/>
-      <c r="B270"/>
-      <c r="C270"/>
-      <c r="D270" s="6"/>
-      <c r="E270" s="6"/>
-      <c r="F270"/>
-      <c r="G270"/>
-      <c r="H270"/>
-    </row>
-    <row r="271" spans="1:8">
-      <c r="A271"/>
-      <c r="B271"/>
-      <c r="C271"/>
-      <c r="D271" s="6"/>
-      <c r="E271" s="6"/>
-      <c r="F271"/>
-      <c r="G271"/>
-      <c r="H271"/>
-    </row>
-    <row r="272" spans="1:8">
-      <c r="A272"/>
-      <c r="B272"/>
-      <c r="C272"/>
-      <c r="D272" s="6"/>
-      <c r="E272" s="6"/>
-      <c r="F272"/>
-      <c r="G272"/>
-      <c r="H272"/>
-    </row>
-    <row r="273" spans="1:8">
-      <c r="A273"/>
-      <c r="B273"/>
-      <c r="C273"/>
-      <c r="D273" s="6"/>
-      <c r="E273" s="6"/>
-      <c r="F273"/>
-      <c r="G273"/>
-      <c r="H273"/>
-    </row>
-    <row r="274" spans="1:8">
-      <c r="A274"/>
-      <c r="B274"/>
-      <c r="C274"/>
-      <c r="D274" s="6"/>
-      <c r="E274" s="6"/>
-      <c r="F274"/>
-      <c r="G274"/>
-      <c r="H274"/>
-    </row>
-    <row r="275" spans="1:8">
-      <c r="A275"/>
-      <c r="B275"/>
-      <c r="C275"/>
-      <c r="D275" s="6"/>
-      <c r="E275" s="6"/>
-      <c r="F275"/>
-      <c r="G275"/>
-      <c r="H275"/>
-    </row>
-    <row r="276" spans="1:8">
-      <c r="A276"/>
-      <c r="B276"/>
-      <c r="C276"/>
-      <c r="D276" s="6"/>
-      <c r="E276" s="6"/>
-      <c r="F276"/>
-      <c r="G276"/>
-      <c r="H276"/>
-    </row>
-    <row r="277" spans="1:8">
-      <c r="A277"/>
-      <c r="B277"/>
-      <c r="C277"/>
-      <c r="D277" s="6"/>
-      <c r="E277" s="6"/>
-      <c r="F277"/>
-      <c r="G277"/>
-      <c r="H277"/>
-    </row>
-    <row r="278" spans="1:8">
-      <c r="A278"/>
-      <c r="B278"/>
-      <c r="C278"/>
-      <c r="D278" s="6"/>
-      <c r="E278" s="6"/>
-      <c r="F278"/>
-      <c r="G278"/>
-      <c r="H278"/>
-    </row>
-    <row r="279" spans="1:8">
-      <c r="D279" s="6"/>
-      <c r="E279" s="6"/>
-    </row>
-    <row r="280" spans="1:8">
-      <c r="D280" s="6"/>
-      <c r="E280" s="6"/>
-    </row>
-    <row r="281" spans="1:8">
-      <c r="D281" s="6"/>
-      <c r="E281" s="6"/>
-    </row>
-    <row r="282" spans="1:8">
-      <c r="D282" s="6"/>
-      <c r="E282" s="6"/>
-    </row>
-    <row r="283" spans="1:8">
-      <c r="D283" s="6"/>
-      <c r="E283" s="6"/>
-    </row>
-    <row r="284" spans="1:8">
-      <c r="D284" s="6"/>
-      <c r="E284" s="6"/>
-    </row>
-    <row r="285" spans="1:8">
-      <c r="D285" s="6"/>
-      <c r="E285" s="6"/>
-    </row>
-    <row r="286" spans="1:8">
-      <c r="D286" s="6"/>
-      <c r="E286" s="6"/>
-    </row>
-    <row r="287" spans="1:8">
-      <c r="D287" s="6"/>
-      <c r="E287" s="6"/>
-    </row>
-    <row r="288" spans="1:8">
-      <c r="D288" s="6"/>
-      <c r="E288" s="6"/>
-    </row>
-    <row r="289" spans="4:5">
-      <c r="D289" s="6"/>
-      <c r="E289" s="6"/>
-    </row>
-    <row r="290" spans="4:5">
-      <c r="D290" s="6"/>
-      <c r="E290" s="6"/>
-    </row>
-    <row r="291" spans="4:5">
-      <c r="D291" s="6"/>
-      <c r="E291" s="6"/>
-    </row>
-    <row r="292" spans="4:5">
-      <c r="D292" s="6"/>
-      <c r="E292" s="6"/>
-    </row>
-    <row r="293" spans="4:5">
-      <c r="D293" s="6"/>
-      <c r="E293" s="6"/>
-    </row>
-    <row r="294" spans="4:5">
-      <c r="D294" s="6"/>
-      <c r="E294" s="6"/>
-    </row>
-    <row r="295" spans="4:5">
-      <c r="D295" s="6"/>
-      <c r="E295" s="6"/>
-    </row>
-    <row r="296" spans="4:5">
-      <c r="D296" s="6"/>
-      <c r="E296" s="6"/>
-    </row>
-    <row r="297" spans="4:5">
-      <c r="D297" s="6"/>
-      <c r="E297" s="6"/>
-    </row>
-    <row r="298" spans="4:5">
-      <c r="D298" s="6"/>
-      <c r="E298" s="6"/>
-    </row>
-    <row r="299" spans="4:5">
-      <c r="D299" s="6"/>
-      <c r="E299" s="6"/>
-    </row>
-    <row r="300" spans="4:5">
-      <c r="D300" s="6"/>
-      <c r="E300" s="6"/>
-    </row>
-    <row r="301" spans="4:5">
-      <c r="D301" s="6"/>
-      <c r="E301" s="6"/>
-    </row>
-    <row r="302" spans="4:5">
-      <c r="D302" s="6"/>
-      <c r="E302" s="6"/>
-    </row>
-    <row r="303" spans="4:5">
-      <c r="D303" s="6"/>
-      <c r="E303" s="6"/>
-    </row>
-    <row r="304" spans="4:5">
-      <c r="D304" s="6"/>
-      <c r="E304" s="6"/>
-    </row>
-    <row r="305" spans="4:5">
-      <c r="D305" s="6"/>
-      <c r="E305" s="6"/>
-    </row>
-    <row r="306" spans="4:5">
-      <c r="D306" s="6"/>
-      <c r="E306" s="6"/>
-    </row>
-    <row r="307" spans="4:5">
-      <c r="D307" s="6"/>
-      <c r="E307" s="6"/>
-    </row>
-    <row r="308" spans="4:5">
-      <c r="D308" s="6"/>
-      <c r="E308" s="6"/>
-    </row>
-    <row r="309" spans="4:5">
-      <c r="D309" s="6"/>
-      <c r="E309" s="6"/>
-    </row>
-    <row r="310" spans="4:5">
-      <c r="D310" s="6"/>
-      <c r="E310" s="6"/>
-    </row>
-    <row r="311" spans="4:5">
-      <c r="D311" s="6"/>
-      <c r="E311" s="6"/>
-    </row>
-    <row r="312" spans="4:5">
-      <c r="D312" s="6"/>
-      <c r="E312" s="6"/>
+      <c r="A260" t="s">
+        <v>22</v>
+      </c>
+      <c r="B260" t="s">
+        <v>23</v>
+      </c>
+      <c r="C260" t="s">
+        <v>27</v>
+      </c>
+      <c r="D260" t="s">
+        <v>454</v>
+      </c>
+      <c r="E260" t="s">
+        <v>455</v>
+      </c>
+      <c r="F260" t="s">
+        <v>421</v>
+      </c>
+      <c r="G260" t="s">
+        <v>456</v>
+      </c>
+      <c r="H260" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="179.4">
+      <c r="A261" t="s">
+        <v>22</v>
+      </c>
+      <c r="B261" t="s">
+        <v>23</v>
+      </c>
+      <c r="C261" t="s">
+        <v>24</v>
+      </c>
+      <c r="D261" t="s">
+        <v>637</v>
+      </c>
+      <c r="E261" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="F261" t="s">
+        <v>417</v>
+      </c>
+      <c r="G261" t="s">
+        <v>457</v>
+      </c>
+      <c r="H261" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="193.2">
+      <c r="A262" t="s">
+        <v>22</v>
+      </c>
+      <c r="B262" t="s">
+        <v>23</v>
+      </c>
+      <c r="C262" t="s">
+        <v>27</v>
+      </c>
+      <c r="D262" t="s">
+        <v>458</v>
+      </c>
+      <c r="E262" s="27" t="s">
+        <v>634</v>
+      </c>
+      <c r="F262" t="s">
+        <v>379</v>
+      </c>
+      <c r="G262" t="s">
+        <v>459</v>
+      </c>
+      <c r="H262" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H227"/>
@@ -8522,10 +8846,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8537,918 +8861,1058 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>429</v>
+      <c r="C1" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>433</v>
+      <c r="A2" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>435</v>
+      <c r="C3" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>437</v>
+      <c r="C4" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>439</v>
+      <c r="C5" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>441</v>
+      <c r="C6" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>444</v>
+      <c r="A7" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A8" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>446</v>
+      <c r="C8" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A9" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>448</v>
+      <c r="C9" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A10" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>450</v>
+      <c r="C10" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>452</v>
+      <c r="C11" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A12" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>455</v>
+      <c r="A12" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>487</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A13" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>457</v>
+      <c r="C13" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>459</v>
+      <c r="C14" s="24" t="s">
+        <v>491</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A15" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>461</v>
+      <c r="C15" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A16" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="A16" s="24" t="s">
+        <v>495</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>464</v>
       </c>
+      <c r="C16" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A17" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="24" t="s">
+        <v>495</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>466</v>
+      <c r="C17" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A18" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="24" t="s">
+        <v>495</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>468</v>
+      <c r="C18" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A19" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="24" t="s">
+        <v>495</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>470</v>
+      <c r="C19" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A20" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="24" t="s">
+        <v>495</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>472</v>
+      <c r="C20" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A21" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>475</v>
+      <c r="A21" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A22" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>477</v>
+      <c r="C22" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A23" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>479</v>
+      <c r="C23" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A24" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>481</v>
+      <c r="C24" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A25" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="B25" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>483</v>
+      <c r="C25" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A26" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>486</v>
+      <c r="A26" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A27" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>488</v>
+      <c r="C27" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A28" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>490</v>
+      <c r="C28" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A29" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>492</v>
+      <c r="C29" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A30" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="B30" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>494</v>
+      <c r="C30" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="28.8" customHeight="1">
-      <c r="A31" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>497</v>
+      <c r="A31" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A32" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="B32" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>499</v>
+      <c r="C32" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A33" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="B33" s="11" t="s">
+      <c r="A33" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>501</v>
+      <c r="C33" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A34" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="B34" s="12" t="s">
+      <c r="A34" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="B34" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>502</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>503</v>
+      <c r="C34" s="24" t="s">
+        <v>535</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A35" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="B35" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>505</v>
+      <c r="C35" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A36" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>508</v>
+      <c r="A36" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A37" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="B37" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>510</v>
+      <c r="C37" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A38" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>512</v>
+      <c r="C38" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A39" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="B39" s="12" t="s">
+      <c r="A39" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="B39" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>514</v>
+      <c r="C39" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A40" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="B40" s="12" t="s">
+      <c r="A40" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="B40" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>516</v>
+      <c r="C40" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A41" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>519</v>
+      <c r="A41" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A42" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="B42" s="12" t="s">
+      <c r="A42" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="B42" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>521</v>
+      <c r="C42" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A43" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="B43" s="11" t="s">
+      <c r="A43" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>523</v>
+      <c r="C43" s="24" t="s">
+        <v>555</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A44" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="B44" s="12" t="s">
+      <c r="A44" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="B44" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>525</v>
+      <c r="C44" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A45" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="B45" s="12" t="s">
+      <c r="A45" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="B45" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>527</v>
+      <c r="C45" s="24" t="s">
+        <v>559</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A46" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>530</v>
+      <c r="A46" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A47" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="B47" s="12" t="s">
+      <c r="A47" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="B47" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>532</v>
+      <c r="C47" s="24" t="s">
+        <v>564</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A48" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="B48" s="11" t="s">
+      <c r="A48" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>534</v>
+      <c r="C48" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A49" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="B49" s="12" t="s">
+      <c r="A49" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="B49" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>536</v>
+      <c r="C49" s="24" t="s">
+        <v>568</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A50" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="B50" s="12" t="s">
+      <c r="A50" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="B50" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>538</v>
+      <c r="C50" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A51" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>541</v>
+      <c r="A51" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A52" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="B52" s="12" t="s">
+      <c r="A52" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="B52" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>543</v>
+      <c r="C52" s="24" t="s">
+        <v>575</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A53" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="B53" s="11" t="s">
+      <c r="A53" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>545</v>
+      <c r="C53" s="24" t="s">
+        <v>577</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A54" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="B54" s="12" t="s">
+      <c r="A54" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="B54" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>547</v>
+      <c r="C54" s="24" t="s">
+        <v>579</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A55" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="B55" s="12" t="s">
+      <c r="A55" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="B55" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>548</v>
+      <c r="C55" s="24" t="s">
+        <v>568</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="28.8" customHeight="1">
-      <c r="A56" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>550</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>551</v>
+      <c r="A56" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>583</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A57" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="B57" s="12" t="s">
+      <c r="A57" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="B57" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="16" t="s">
-        <v>552</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>553</v>
+      <c r="C57" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A58" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="B58" s="11" t="s">
+      <c r="A58" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>555</v>
+      <c r="C58" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A59" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="B59" s="12" t="s">
+      <c r="A59" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="B59" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="16" t="s">
-        <v>556</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>557</v>
+      <c r="C59" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A60" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="B60" s="12" t="s">
+      <c r="A60" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="B60" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="16" t="s">
-        <v>558</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>559</v>
+      <c r="C60" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A61" s="16" t="s">
-        <v>560</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>561</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>562</v>
+      <c r="A61" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A62" s="16" t="s">
-        <v>560</v>
-      </c>
-      <c r="B62" s="12" t="s">
+      <c r="A62" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="B62" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>564</v>
+      <c r="C62" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A63" s="16" t="s">
-        <v>560</v>
-      </c>
-      <c r="B63" s="11" t="s">
+      <c r="A63" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="16" t="s">
-        <v>565</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>566</v>
+      <c r="C63" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A64" s="16" t="s">
-        <v>560</v>
-      </c>
-      <c r="B64" s="12" t="s">
+      <c r="A64" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="B64" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="16" t="s">
-        <v>567</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>568</v>
+      <c r="C64" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A65" s="16" t="s">
-        <v>560</v>
-      </c>
-      <c r="B65" s="12" t="s">
+      <c r="A65" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="B65" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="16" t="s">
-        <v>569</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>570</v>
+      <c r="C65" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="14.4" customHeight="1">
+      <c r="A66" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="14.4" customHeight="1">
+      <c r="A67" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="14.4" customHeight="1">
+      <c r="A68" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="14.4" customHeight="1">
+      <c r="A69" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>611</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="14.4" customHeight="1">
+      <c r="A70" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>613</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="14.4">
+      <c r="A71" s="24" t="s">
+        <v>615</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>624</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="14.4">
+      <c r="A72" s="24" t="s">
+        <v>615</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="14.4">
+      <c r="A73" s="24" t="s">
+        <v>615</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="14.4">
+      <c r="A74" s="24" t="s">
+        <v>615</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="14.4">
+      <c r="A75" s="24" t="s">
+        <v>615</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>621</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/instance/zyjk/zentao/核心思想与禅道每日审查_测试.xlsx
+++ b/instance/zyjk/zentao/核心思想与禅道每日审查_测试.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="678">
   <si>
     <t>姓名</t>
   </si>
@@ -1741,6 +1741,13 @@
     <t>检验检查重复计费情况复现-数据添加测试并发情况等；验证检验检查重复确认问题，目前还有问题解决中</t>
   </si>
   <si>
+    <t xml:space="preserve">_x000D_
+	检验检查重复计费情况复现-数据添加测试并发情况等；_x000D_
+_x000D_
+	验证检验检查重复确认问题，目前还有问题解决中_x000D_
+</t>
+  </si>
+  <si>
     <t>2020-06-04 18:03:39</t>
   </si>
   <si>
@@ -1768,16 +1775,37 @@
     <t>借款、报销、请假、申请单流程测试/提交bug/验证修复bug</t>
   </si>
   <si>
+    <t xml:space="preserve">_x000D_
+	1.对智赢公司人员进行遍历测试_x000D_
+_x000D_
+	2.发现部分bug，如个别人员缺少申请单选项，申请无法转交。_x000D_
+_x000D_
+	3.回归验证开发修复的bug问题_x000D_
+</t>
+  </si>
+  <si>
     <t>2020-06-04 17:55:54</t>
   </si>
   <si>
     <t>出差、外出需求业务梳理</t>
   </si>
   <si>
+    <t>1.对出差、外出审批流程梳理</t>
+  </si>
+  <si>
     <t>2020-06-04 17:56:52</t>
   </si>
   <si>
     <t>回归验证安卓草稿档案未添加残疾证号字段bug问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1.对项目进行构建，下载最新的apk。_x000D_
+_x000D_
+	2.发现档案录入导致程序奔溃，查看日志反馈给开发。_x000D_
+_x000D_
+	3.对旧版app进行卸载重装，回归验证草稿档案没添加残疾证号字段bug。_x000D_
+</t>
   </si>
   <si>
     <t>2020-06-04 17:59:38</t>
@@ -1824,6 +1852,19 @@
   </si>
   <si>
     <t>核对自定义报表各个字段统计的信息是否正确</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	目前 医院门诊登记、上海白茅岭医院出院病人登记簿、检验科工作量、门急诊挂号次数登记、白茅岭医院医生处方量、白茅岭医院医生处方量明细、白茅岭医院门诊药品收支明细表已核对完毕 _x000D_
+_x000D_
+_x000D_
+剩余上海市白茅岭医院门急诊医药费用汇总表、白茅岭医院住院药品费用明细表、白茅岭医院住院费用一览表 尚未核对完毕 _x000D_
+_x000D_
+_x000D_新发现bug：4649、4650 _x000D_
+_x000D_
+_x000D_
+	关闭bug：4635、4642、4646 _x000D_
+</t>
   </si>
   <si>
     <t>2020-06-04 18:23:32</t>
@@ -1864,566 +1905,26 @@
     <t>2020-06-04 18:00:30</t>
   </si>
   <si>
+    <t xml:space="preserve"> bi-现场环境--门急诊动态监测/住院动态监测-页面指标进行功能测试/sql编写/修改/页面信息展示比对</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	对指标：_x000D_
+_x000D_
+	1科室普通门急诊量统计/普通医生接诊人次/专家门诊业务/门诊挂号类型分布/_x000D_
+_x000D_
+	今日普通门诊平均等待时间/门诊使用前十药品排名_x000D_
+_x000D_
+	2床位使用情况/今日在院病人按天分布 进行 sql编写/更改/页面数据比对_x000D_
+_x000D_
+_x000D_
+	</t>
+  </si>
+  <si>
     <t>2020-06-04 18:06:10</t>
   </si>
   <si>
     <t>upv-现场环境-全景视图--用药记录/诊疗记录/其他字段-功能测试/页面信息展示/sql数据导入/bug反馈</t>
-  </si>
-  <si>
-    <t>2020-06-04 18:13:55</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>关键词</t>
-  </si>
-  <si>
-    <t>每日一核</t>
-  </si>
-  <si>
-    <t>2020.5.18</t>
-  </si>
-  <si>
-    <t>金浩</t>
-  </si>
-  <si>
-    <t>新思维</t>
-  </si>
-  <si>
-    <t>善用新思维、多角度去思考与发现</t>
-  </si>
-  <si>
-    <t>脚踏实地</t>
-  </si>
-  <si>
-    <t>无论是工作，生活还是学习都需要脚踏实地，把每件事做好做实</t>
-  </si>
-  <si>
-    <t>团队精神</t>
-  </si>
-  <si>
-    <t>共同实现一个目标，相互信任，相互配合，相互支持，努力争取的奋斗精神</t>
-  </si>
-  <si>
-    <t>价值</t>
-  </si>
-  <si>
-    <t>有价值的事，才是值得你做的事</t>
-  </si>
-  <si>
-    <t>效率</t>
-  </si>
-  <si>
-    <t>把握重点多做有用功</t>
-  </si>
-  <si>
-    <t>2020.5.19</t>
-  </si>
-  <si>
-    <t>创造意义</t>
-  </si>
-  <si>
-    <t>每件事都有它存在的意义，为患者提供全生命周期的服务是我们坚定的目标。</t>
-  </si>
-  <si>
-    <t>要事优先</t>
-  </si>
-  <si>
-    <t>工作时，要分清主次，优先处理重要的事情</t>
-  </si>
-  <si>
-    <t>匠人匠心</t>
-  </si>
-  <si>
-    <t>专注、执着、细心的做好每件事情。</t>
-  </si>
-  <si>
-    <t>积累</t>
-  </si>
-  <si>
-    <t>冰冻三尺，非一日之寒，积少成多</t>
-  </si>
-  <si>
-    <t>坚持</t>
-  </si>
-  <si>
-    <t>不畏艰难终会达到目标</t>
-  </si>
-  <si>
-    <t>2020.5.20</t>
-  </si>
-  <si>
-    <t>培养习惯</t>
-  </si>
-  <si>
-    <t>注重养成好习惯，自然而然水到渠成。学而时习之的习绝不应该是温习，而是一种习惯（实践 练习 锻炼）</t>
-  </si>
-  <si>
-    <t>求知</t>
-  </si>
-  <si>
-    <t>做事要有一定的求知欲，遇到问题不光要知其然，还要知其所以然</t>
-  </si>
-  <si>
-    <t>专注如一</t>
-  </si>
-  <si>
-    <t>人一定要做自己喜欢且擅长的事情，认准了，就去做;不跟风，不动摇</t>
-  </si>
-  <si>
-    <t>勤奋</t>
-  </si>
-  <si>
-    <t>业精于勤荒于嬉，勤能补拙</t>
-  </si>
-  <si>
-    <t>2020.5.21</t>
-  </si>
-  <si>
-    <t>珍惜机会</t>
-  </si>
-  <si>
-    <t>请珍惜眼前做事的机会，最好的机会不在那里，就在你眼前。</t>
-  </si>
-  <si>
-    <t>换位思考</t>
-  </si>
-  <si>
-    <t xml:space="preserve">与人交流沟通时，要学会换位思考，从不同的角度考虑问题    </t>
-  </si>
-  <si>
-    <t>行动</t>
-  </si>
-  <si>
-    <t>义无反顾的坚决执行，快速行动。只有这样，决策才能落地，并朝着设定的目标前进。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">善于总结 </t>
-  </si>
-  <si>
-    <t>工作中要善于总结，做事要条理清晰</t>
-  </si>
-  <si>
-    <t>细心</t>
-  </si>
-  <si>
-    <t>细节决定成败</t>
-  </si>
-  <si>
-    <t>2020.5.22</t>
-  </si>
-  <si>
-    <t>顿悟</t>
-  </si>
-  <si>
-    <t>意会之美大语言表</t>
-  </si>
-  <si>
-    <t>律己</t>
-  </si>
-  <si>
-    <t xml:space="preserve">要养成好的工作生活习惯，严与律己 </t>
-  </si>
-  <si>
-    <t>守时</t>
-  </si>
-  <si>
-    <t>养成做任何事情都提前15分钟的习惯。</t>
-  </si>
-  <si>
-    <t>分享</t>
-  </si>
-  <si>
-    <t>一花独放不是春，善于分享，共同进步</t>
-  </si>
-  <si>
-    <t>自省</t>
-  </si>
-  <si>
-    <t>从自身出发，总结和规划</t>
-  </si>
-  <si>
-    <t>2020.5.25</t>
-  </si>
-  <si>
-    <t>九分努力</t>
-  </si>
-  <si>
-    <t>做人是给别人看，做事是给自己看的，是否努力自己最清楚了</t>
-  </si>
-  <si>
-    <t>责任感</t>
-  </si>
-  <si>
-    <t>工作要有强烈的责任感，认真做好每一件事</t>
-  </si>
-  <si>
-    <t>进步</t>
-  </si>
-  <si>
-    <t>每天进一步，踏上成功路。</t>
-  </si>
-  <si>
-    <t>感恩</t>
-  </si>
-  <si>
-    <t>怀感恩之心，做感恩之事</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自律 </t>
-  </si>
-  <si>
-    <t>严于律己，宽以待人</t>
-  </si>
-  <si>
-    <t>2020.5.26</t>
-  </si>
-  <si>
-    <t>谋定而后动</t>
-  </si>
-  <si>
-    <t>慎始，做事情前应准备一段前置时间，盘算盘算，计划计划，测试测试，
-Are u ready?如果你不加思索地回答yeah, 那你是真的还没准备好。</t>
-  </si>
-  <si>
-    <t>团队合作</t>
-  </si>
-  <si>
-    <t>注重团队合作，团体的力量永远大于个人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">创造价值  </t>
-  </si>
-  <si>
-    <t>创造价值是企业的天职。只有持续创造价值，企业才能发展壮大，员工才能实现自我。</t>
-  </si>
-  <si>
-    <t>乐观</t>
-  </si>
-  <si>
-    <t>乐观向上，迎难而上</t>
-  </si>
-  <si>
-    <t>学习</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学习如逆水行舟，不进则退 </t>
-  </si>
-  <si>
-    <t>2020.5.27</t>
-  </si>
-  <si>
-    <t>利牝马之贞</t>
-  </si>
-  <si>
-    <t>做事不盲目顺从。</t>
-  </si>
-  <si>
-    <t>积极乐观</t>
-  </si>
-  <si>
-    <t>无论做什么事情都应该保持积极乐观的态度，应对工作中的每个挑战</t>
-  </si>
-  <si>
-    <t>真诚</t>
-  </si>
-  <si>
-    <t>真实诚恳，真心实意</t>
-  </si>
-  <si>
-    <t>沟通</t>
-  </si>
-  <si>
-    <t>及时有效的沟通，可以让自己少走弯路。</t>
-  </si>
-  <si>
-    <t>多方位思考</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  多多从各个不同角度、方向思考和看待问题</t>
-  </si>
-  <si>
-    <t>2020.5.28</t>
-  </si>
-  <si>
-    <t>作事谋始</t>
-  </si>
-  <si>
-    <t>做任何事情之前得充分的做准备，权衡利弊再做行动。</t>
-  </si>
-  <si>
-    <t>学以致用</t>
-  </si>
-  <si>
-    <t>学到的东西要使用出来才能发挥出它的价值</t>
-  </si>
-  <si>
-    <t>多思维</t>
-  </si>
-  <si>
-    <t>多种思维去考虑问题，去解决问题。</t>
-  </si>
-  <si>
-    <t>衡量</t>
-  </si>
-  <si>
-    <t>衡量事物的利与弊，做出最有价值的选择</t>
-  </si>
-  <si>
-    <t>独立思考</t>
-  </si>
-  <si>
-    <t>遇到问题先自我思考，寻找解决方法，培养自我解决问题的能力</t>
-  </si>
-  <si>
-    <t>2020.5.29</t>
-  </si>
-  <si>
-    <t>师忧比乐</t>
-  </si>
-  <si>
-    <t>便是早日把竞争的观念改变为互助的观念。</t>
-  </si>
-  <si>
-    <t>高效</t>
-  </si>
-  <si>
-    <t>提高工作效率才能节省人力时间成本</t>
-  </si>
-  <si>
-    <t>细节</t>
-  </si>
-  <si>
-    <t>细节决定成败，心态决定人生</t>
-  </si>
-  <si>
-    <t>双赢</t>
-  </si>
-  <si>
-    <t xml:space="preserve">多站在对方的角度处理问题，会有事半功倍的效果    </t>
-  </si>
-  <si>
-    <t>笃行</t>
-  </si>
-  <si>
-    <t>明确目标、踏踏实实、学以致用</t>
-  </si>
-  <si>
-    <t>2020.6.1</t>
-  </si>
-  <si>
-    <t>小畜</t>
-  </si>
-  <si>
-    <t>我们总有还没有充分准备好以至于你的理想不能发挥的哪个节骨眼。</t>
-  </si>
-  <si>
-    <t>沉着冷静</t>
-  </si>
-  <si>
-    <t xml:space="preserve">遇事不惊，沉着应对  </t>
-  </si>
-  <si>
-    <t>努力</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 一份耕耘，一份收获，努力越大，收获越多。</t>
-  </si>
-  <si>
-    <t>服从</t>
-  </si>
-  <si>
-    <t xml:space="preserve">遵从公司制度，服从领导安排     </t>
-  </si>
-  <si>
-    <t>不止是对内部平时工作，还有对外和客户的合作都应该是互利共赢的</t>
-  </si>
-  <si>
-    <t>2020.6.2</t>
-  </si>
-  <si>
-    <t>一以贯之</t>
-  </si>
-  <si>
-    <t>回归原点，不忘初心，这是非常难得的，每过一段时间回归原点，自问是不是又走偏了，时刻把自己拉回来。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">推陈出新  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">去其槽粕取其精华，不断创新 </t>
-  </si>
-  <si>
-    <t>时间管理</t>
-  </si>
-  <si>
-    <t>每一分每一秒做最有生产力的事情.</t>
-  </si>
-  <si>
-    <t>平衡</t>
-  </si>
-  <si>
-    <t>平衡"我愿意和我应该",多些担当，少些任性</t>
-  </si>
-  <si>
-    <t>夯实基础</t>
-  </si>
-  <si>
-    <t>好的基础是更快发展的基石</t>
-  </si>
-  <si>
-    <t>2020.6.3</t>
-  </si>
-  <si>
-    <t>不失己任</t>
-  </si>
-  <si>
-    <t>自己的责任不能推卸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">守信 </t>
-  </si>
-  <si>
-    <t>遵守承诺，按时按量完成工作</t>
-  </si>
-  <si>
-    <t>品质</t>
-  </si>
-  <si>
-    <t>品质是企业的基石，专业是发展的动力。</t>
-  </si>
-  <si>
-    <t>耕耘</t>
-  </si>
-  <si>
-    <t>与其花时间应付不理想的现在，不如去耕耘和造就你想要的未来</t>
-  </si>
-  <si>
-    <t>责任</t>
-  </si>
-  <si>
-    <t>身体力行，完成分内事</t>
-  </si>
-  <si>
-    <t>2020.6.4</t>
-  </si>
-  <si>
-    <t>反求诸己</t>
-  </si>
-  <si>
-    <t>当工作没有达到预期效果时，应该先从自身问题上找原因，及时反省总结。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">业精于勤  </t>
-  </si>
-  <si>
-    <t>勤奋是获得成功必不可缺的要素</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逆流而上  </t>
-  </si>
-  <si>
-    <t>不怕困难，解决困难。</t>
-  </si>
-  <si>
-    <t>务实</t>
-  </si>
-  <si>
-    <t>没有不劳而获的工作，更没有坐享其成的收获</t>
-  </si>
-  <si>
-    <t>行动力</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 知行合一，实践出真知</t>
-  </si>
-  <si>
-    <t>2020.6.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日总结与反思自己，思考事情是否能够做的更好</t>
-  </si>
-  <si>
-    <t>反思</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不忘初心，方得始终！</t>
-  </si>
-  <si>
-    <t>不忘初心</t>
-  </si>
-  <si>
-    <t>目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定好目标做事才会更有方向、效率更高</t>
-  </si>
-  <si>
-    <t>尽职尽责</t>
-  </si>
-  <si>
-    <t>尽自己最大的努力来完成自己的职责</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居安思危</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时刻提高警觉，预防祸患，时刻保持头脑清醒，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">_x000D_
-	检验检查重复计费情况复现-数据添加测试并发情况等；_x000D_
-_x000D_
-	验证检验检查重复确认问题，目前还有问题解决中_x000D_
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.对出差、外出审批流程梳理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">_x000D_
-	1.对项目进行构建，下载最新的apk。_x000D_
-_x000D_
-	2.发现档案录入导致程序奔溃，查看日志反馈给开发。_x000D_
-_x000D_
-	3.对旧版app进行卸载重装，回归验证草稿档案没添加残疾证号字段bug。_x000D_
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家床1.5建床、医嘱等全部的icd10、医联、中医诊断查询根据当前版本号测试，并设置常用诊断测试，目前中医诊断设置还有一个问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">_x000D_
-	1.对智赢公司人员进行遍历测试_x000D_
-_x000D_
-	2.发现部分bug，如个别人员缺少申请单选项，申请无法转交。_x000D_
-_x000D_
-	3.回归验证开发修复的bug问题_x000D_
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西医性质家床只选择医联诊断发送处方后会默认中医诊断传值问题验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日核心思想讨论会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂号后修改患者年龄姓名等数据后在收费这边查询患者数据更新问题验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">_x000D_
@@ -2438,38 +1939,683 @@
 _x000D_
 	用药记录字段与ui显示不一致，没有显示药品医嘱用量，待开发增加拼接字段信息后验证_x000D_
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-04 18:13:55</t>
+  </si>
+  <si>
+    <t>家床常用诊断在1.5版本建床诊断新增修改、上报诊断、医嘱等开立时的设置测试 ；现有诊断无法查询首字母问题讨论</t>
+  </si>
+  <si>
+    <t>2020-06-05 18:01:39</t>
+  </si>
+  <si>
+    <t>家床建床登记上报诊断必填校验没有问题测试和开发环境验证</t>
+  </si>
+  <si>
+    <t>家床建床登记上报诊断必填校验没有问题测试和开发环境验证（由于断网测试环境待恢复)</t>
+  </si>
+  <si>
+    <t>2020-06-05 18:01:44</t>
+  </si>
+  <si>
+    <t>pim1.2.2检查重复计费问题验证、门诊检验检查确认医技回归测试，检验检查医嘱作废需要校验医技状态和费用功能测试</t>
+  </si>
+  <si>
+    <t>pim1.2.2检查重复计费问题验证、门诊检验检查确认医技回归测试，检验检查医嘱作废需要校验医技状态和费用功能测试，目前提示语前端未显示</t>
+  </si>
+  <si>
+    <t>2020-06-05 18:02:59</t>
+  </si>
+  <si>
+    <t>2020-06-05 18:03:36</t>
+  </si>
+  <si>
+    <t>自造质控数据</t>
   </si>
   <si>
     <t xml:space="preserve">_x000D_
-	对指标：_x000D_
-_x000D_
-	1科室普通门急诊量统计/普通医生接诊人次/专家门诊业务/门诊挂号类型分布/_x000D_
-_x000D_
-	今日普通门诊平均等待时间/门诊使用前十药品排名_x000D_
-_x000D_
-	2床位使用情况/今日在院病人按天分布 进行 sql编写/更改/页面数据比对_x000D_
+	1.编写sql质控数据自造_x000D_
 _x000D_
 _x000D_
-	</t>
+	2.为提测前工作准备_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-05 18:02:23</t>
+  </si>
+  <si>
+    <t>质控规则环境搭建</t>
+  </si>
+  <si>
+    <t>2020-06-05 18:03:34</t>
+  </si>
+  <si>
+    <t>外出与出差需求评审</t>
+  </si>
+  <si>
+    <t>2020-06-05 18:04:41</t>
+  </si>
+  <si>
+    <t>2020-06-05 18:05:32</t>
+  </si>
+  <si>
+    <t>web自动化进行实操编写</t>
+  </si>
+  <si>
+    <t>2020-06-05 18:06:45</t>
+  </si>
+  <si>
+    <t>2020-06-05 17:57:51</t>
+  </si>
+  <si>
+    <t>核对报表字段内容展示是否正确</t>
+  </si>
+  <si>
+    <t>2020-06-05 18:02:17</t>
+  </si>
+  <si>
+    <t>编写EMPI测试用例</t>
+  </si>
+  <si>
+    <t>2020-06-05 18:09:51</t>
+  </si>
+  <si>
+    <t>2020-06-05 18:09:57</t>
+  </si>
+  <si>
+    <t>2020-06-05 17:48:24</t>
+  </si>
+  <si>
+    <t>upv-现场环境-整体业务流程及功能测试</t>
+  </si>
+  <si>
+    <t>2020-06-05 17:56:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bi-现场环境--门诊分析-门诊业务/门诊处方/门诊收入-页面指标进行功能测试/sql编写/修改/页面信息展示比对</t>
+  </si>
+  <si>
+    <t>2020-06-05 17:59:00</t>
+  </si>
+  <si>
+    <t>2020-06-05 17:59:49</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>关键词</t>
+  </si>
+  <si>
+    <t>每日一核</t>
+  </si>
+  <si>
+    <t>2020.5.18</t>
+  </si>
+  <si>
+    <t>金浩</t>
+  </si>
+  <si>
+    <t>新思维</t>
+  </si>
+  <si>
+    <t>善用新思维、多角度去思考与发现</t>
+  </si>
+  <si>
+    <t>脚踏实地</t>
+  </si>
+  <si>
+    <t>无论是工作，生活还是学习都需要脚踏实地，把每件事做好做实</t>
+  </si>
+  <si>
+    <t>团队精神</t>
+  </si>
+  <si>
+    <t>共同实现一个目标，相互信任，相互配合，相互支持，努力争取的奋斗精神</t>
+  </si>
+  <si>
+    <t>价值</t>
+  </si>
+  <si>
+    <t>有价值的事，才是值得你做的事</t>
+  </si>
+  <si>
+    <t>效率</t>
+  </si>
+  <si>
+    <t>把握重点多做有用功</t>
+  </si>
+  <si>
+    <t>2020.5.19</t>
+  </si>
+  <si>
+    <t>创造意义</t>
+  </si>
+  <si>
+    <t>每件事都有它存在的意义，为患者提供全生命周期的服务是我们坚定的目标。</t>
+  </si>
+  <si>
+    <t>要事优先</t>
+  </si>
+  <si>
+    <t>工作时，要分清主次，优先处理重要的事情</t>
+  </si>
+  <si>
+    <t>匠人匠心</t>
+  </si>
+  <si>
+    <t>专注、执着、细心的做好每件事情。</t>
+  </si>
+  <si>
+    <t>积累</t>
+  </si>
+  <si>
+    <t>冰冻三尺，非一日之寒，积少成多</t>
+  </si>
+  <si>
+    <t>坚持</t>
+  </si>
+  <si>
+    <t>不畏艰难终会达到目标</t>
+  </si>
+  <si>
+    <t>2020.5.20</t>
+  </si>
+  <si>
+    <t>培养习惯</t>
+  </si>
+  <si>
+    <t>注重养成好习惯，自然而然水到渠成。学而时习之的习绝不应该是温习，而是一种习惯（实践 练习 锻炼）</t>
+  </si>
+  <si>
+    <t>求知</t>
+  </si>
+  <si>
+    <t>做事要有一定的求知欲，遇到问题不光要知其然，还要知其所以然</t>
+  </si>
+  <si>
+    <t>专注如一</t>
+  </si>
+  <si>
+    <t>人一定要做自己喜欢且擅长的事情，认准了，就去做;不跟风，不动摇</t>
+  </si>
+  <si>
+    <t>勤奋</t>
+  </si>
+  <si>
+    <t>业精于勤荒于嬉，勤能补拙</t>
+  </si>
+  <si>
+    <t>2020.5.21</t>
+  </si>
+  <si>
+    <t>珍惜机会</t>
+  </si>
+  <si>
+    <t>请珍惜眼前做事的机会，最好的机会不在那里，就在你眼前。</t>
+  </si>
+  <si>
+    <t>换位思考</t>
+  </si>
+  <si>
+    <t xml:space="preserve">与人交流沟通时，要学会换位思考，从不同的角度考虑问题    </t>
+  </si>
+  <si>
+    <t>行动</t>
+  </si>
+  <si>
+    <t>义无反顾的坚决执行，快速行动。只有这样，决策才能落地，并朝着设定的目标前进。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">善于总结 </t>
+  </si>
+  <si>
+    <t>工作中要善于总结，做事要条理清晰</t>
+  </si>
+  <si>
+    <t>细心</t>
+  </si>
+  <si>
+    <t>细节决定成败</t>
+  </si>
+  <si>
+    <t>2020.5.22</t>
+  </si>
+  <si>
+    <t>顿悟</t>
+  </si>
+  <si>
+    <t>意会之美大语言表</t>
+  </si>
+  <si>
+    <t>律己</t>
+  </si>
+  <si>
+    <t xml:space="preserve">要养成好的工作生活习惯，严与律己 </t>
+  </si>
+  <si>
+    <t>守时</t>
+  </si>
+  <si>
+    <t>养成做任何事情都提前15分钟的习惯。</t>
+  </si>
+  <si>
+    <t>分享</t>
+  </si>
+  <si>
+    <t>一花独放不是春，善于分享，共同进步</t>
+  </si>
+  <si>
+    <t>自省</t>
+  </si>
+  <si>
+    <t>从自身出发，总结和规划</t>
+  </si>
+  <si>
+    <t>2020.5.25</t>
+  </si>
+  <si>
+    <t>九分努力</t>
+  </si>
+  <si>
+    <t>做人是给别人看，做事是给自己看的，是否努力自己最清楚了</t>
+  </si>
+  <si>
+    <t>责任感</t>
+  </si>
+  <si>
+    <t>工作要有强烈的责任感，认真做好每一件事</t>
+  </si>
+  <si>
+    <t>进步</t>
+  </si>
+  <si>
+    <t>每天进一步，踏上成功路。</t>
+  </si>
+  <si>
+    <t>感恩</t>
+  </si>
+  <si>
+    <t>怀感恩之心，做感恩之事</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自律 </t>
+  </si>
+  <si>
+    <t>严于律己，宽以待人</t>
+  </si>
+  <si>
+    <t>2020.5.26</t>
+  </si>
+  <si>
+    <t>谋定而后动</t>
+  </si>
+  <si>
+    <t>慎始，做事情前应准备一段前置时间，盘算盘算，计划计划，测试测试，
+Are u ready?如果你不加思索地回答yeah, 那你是真的还没准备好。</t>
+  </si>
+  <si>
+    <t>团队合作</t>
+  </si>
+  <si>
+    <t>注重团队合作，团体的力量永远大于个人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">创造价值  </t>
+  </si>
+  <si>
+    <t>创造价值是企业的天职。只有持续创造价值，企业才能发展壮大，员工才能实现自我。</t>
+  </si>
+  <si>
+    <t>乐观</t>
+  </si>
+  <si>
+    <t>乐观向上，迎难而上</t>
+  </si>
+  <si>
+    <t>学习</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学习如逆水行舟，不进则退 </t>
+  </si>
+  <si>
+    <t>2020.5.27</t>
+  </si>
+  <si>
+    <t>利牝马之贞</t>
+  </si>
+  <si>
+    <t>做事不盲目顺从。</t>
+  </si>
+  <si>
+    <t>积极乐观</t>
+  </si>
+  <si>
+    <t>无论做什么事情都应该保持积极乐观的态度，应对工作中的每个挑战</t>
+  </si>
+  <si>
+    <t>真诚</t>
+  </si>
+  <si>
+    <t>真实诚恳，真心实意</t>
+  </si>
+  <si>
+    <t>沟通</t>
+  </si>
+  <si>
+    <t>及时有效的沟通，可以让自己少走弯路。</t>
+  </si>
+  <si>
+    <t>多方位思考</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  多多从各个不同角度、方向思考和看待问题</t>
+  </si>
+  <si>
+    <t>2020.5.28</t>
+  </si>
+  <si>
+    <t>作事谋始</t>
+  </si>
+  <si>
+    <t>做任何事情之前得充分的做准备，权衡利弊再做行动。</t>
+  </si>
+  <si>
+    <t>学以致用</t>
+  </si>
+  <si>
+    <t>学到的东西要使用出来才能发挥出它的价值</t>
+  </si>
+  <si>
+    <t>多思维</t>
+  </si>
+  <si>
+    <t>多种思维去考虑问题，去解决问题。</t>
+  </si>
+  <si>
+    <t>衡量</t>
+  </si>
+  <si>
+    <t>衡量事物的利与弊，做出最有价值的选择</t>
+  </si>
+  <si>
+    <t>独立思考</t>
+  </si>
+  <si>
+    <t>遇到问题先自我思考，寻找解决方法，培养自我解决问题的能力</t>
+  </si>
+  <si>
+    <t>2020.5.29</t>
+  </si>
+  <si>
+    <t>师忧比乐</t>
+  </si>
+  <si>
+    <t>便是早日把竞争的观念改变为互助的观念。</t>
+  </si>
+  <si>
+    <t>高效</t>
+  </si>
+  <si>
+    <t>提高工作效率才能节省人力时间成本</t>
+  </si>
+  <si>
+    <t>细节</t>
+  </si>
+  <si>
+    <t>细节决定成败，心态决定人生</t>
+  </si>
+  <si>
+    <t>双赢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">多站在对方的角度处理问题，会有事半功倍的效果    </t>
+  </si>
+  <si>
+    <t>笃行</t>
+  </si>
+  <si>
+    <t>明确目标、踏踏实实、学以致用</t>
+  </si>
+  <si>
+    <t>2020.6.1</t>
+  </si>
+  <si>
+    <t>小畜</t>
+  </si>
+  <si>
+    <t>我们总有还没有充分准备好以至于你的理想不能发挥的哪个节骨眼。</t>
+  </si>
+  <si>
+    <t>沉着冷静</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遇事不惊，沉着应对  </t>
+  </si>
+  <si>
+    <t>努力</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 一份耕耘，一份收获，努力越大，收获越多。</t>
+  </si>
+  <si>
+    <t>服从</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遵从公司制度，服从领导安排     </t>
+  </si>
+  <si>
+    <t>不止是对内部平时工作，还有对外和客户的合作都应该是互利共赢的</t>
+  </si>
+  <si>
+    <t>2020.6.2</t>
+  </si>
+  <si>
+    <t>一以贯之</t>
+  </si>
+  <si>
+    <t>回归原点，不忘初心，这是非常难得的，每过一段时间回归原点，自问是不是又走偏了，时刻把自己拉回来。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">推陈出新  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">去其槽粕取其精华，不断创新 </t>
+  </si>
+  <si>
+    <t>时间管理</t>
+  </si>
+  <si>
+    <t>每一分每一秒做最有生产力的事情.</t>
+  </si>
+  <si>
+    <t>平衡</t>
+  </si>
+  <si>
+    <t>平衡"我愿意和我应该",多些担当，少些任性</t>
+  </si>
+  <si>
+    <t>夯实基础</t>
+  </si>
+  <si>
+    <t>好的基础是更快发展的基石</t>
+  </si>
+  <si>
+    <t>2020.6.3</t>
+  </si>
+  <si>
+    <t>不失己任</t>
+  </si>
+  <si>
+    <t>自己的责任不能推卸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">守信 </t>
+  </si>
+  <si>
+    <t>遵守承诺，按时按量完成工作</t>
+  </si>
+  <si>
+    <t>品质</t>
+  </si>
+  <si>
+    <t>品质是企业的基石，专业是发展的动力。</t>
+  </si>
+  <si>
+    <t>耕耘</t>
+  </si>
+  <si>
+    <t>与其花时间应付不理想的现在，不如去耕耘和造就你想要的未来</t>
+  </si>
+  <si>
+    <t>责任</t>
+  </si>
+  <si>
+    <t>身体力行，完成分内事</t>
+  </si>
+  <si>
+    <t>2020.6.4</t>
+  </si>
+  <si>
+    <t>反求诸己</t>
+  </si>
+  <si>
+    <t>当工作没有达到预期效果时，应该先从自身问题上找原因，及时反省总结。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">业精于勤  </t>
+  </si>
+  <si>
+    <t>勤奋是获得成功必不可缺的要素</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逆流而上  </t>
+  </si>
+  <si>
+    <t>不怕困难，解决困难。</t>
+  </si>
+  <si>
+    <t>务实</t>
+  </si>
+  <si>
+    <t>没有不劳而获的工作，更没有坐享其成的收获</t>
+  </si>
+  <si>
+    <t>行动力</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 知行合一，实践出真知</t>
+  </si>
+  <si>
+    <t>2020.6.5</t>
+  </si>
+  <si>
+    <t>居安思危</t>
+  </si>
+  <si>
+    <t>时刻提高警觉，预防祸患，时刻保持头脑清醒，</t>
+  </si>
+  <si>
+    <t>反思</t>
+  </si>
+  <si>
+    <t>每日总结与反思自己，思考事情是否能够做的更好</t>
+  </si>
+  <si>
+    <t>尽职尽责</t>
+  </si>
+  <si>
+    <t>尽自己最大的努力来完成自己的职责</t>
+  </si>
+  <si>
+    <t>不忘初心</t>
+  </si>
+  <si>
+    <t>不忘初心，方得始终！</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>定好目标做事才会更有方向、效率更高</t>
+  </si>
+  <si>
+    <t>结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>家床常用诊断在1.5版本建床诊断新增修改、上报诊断、医嘱等开立时的设置测试，且还需合并到2.0版本上进行测试 ；现有诊断无法查询首字母问题讨论，目前现有诊断还需修改加上首字母字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">_x000D_
-	目前 医院门诊登记、上海白茅岭医院出院病人登记簿、检验科工作量、门急诊挂号次数登记、白茅岭医院医生处方量、白茅岭医院医生处方量明细、白茅岭医院门诊药品收支明细表已核对完毕 _x000D_
+	1.执行自动化脚本_x000D_
 _x000D_
-_x000D_
-剩余上海市白茅岭医院门急诊医药费用汇总表、白茅岭医院住院药品费用明细表、白茅岭医院住院费用一览表 尚未核对完毕 _x000D_
-_x000D_
-_x000D_新发现bug：4649、4650 _x000D_
-_x000D_
-_x000D_
-	关闭bug：4635、4642、4646 _x000D_
+	2.与开发质控规则引擎对接_x000D_
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> bi-现场环境--门急诊动态监测/住院动态监测-页面指标进行功能测试/sql编写/修改/页面信息展示比对</t>
+    <t>1.参加开发组织的外出、出差评审会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1.对电子健康档案进行web自动化实操_x000D_
+_x000D_
+	2.编写自动化代办_x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论公司核心思想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+测试 上海市白茅岭医院门急诊医药费用汇总表、白茅岭医院住院药品费用明细表、白茅岭医院住院费用一览表 三个报表里面各个字段查到的数据是否正确 _x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉EMPI的需求，了解功能流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1门诊-诊疗时间维度_x000D_
+_x000D_
+	2住院-诊疗时间维度_x000D_
+_x000D__x000D_
+	3诊疗资料维度_x000D_
+_x000D__x000D_
+	4全景视图 业务流程及功能测试/回归测试_x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良好的自我更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成 患者匹配规则界面的功能测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	门诊分析-_x000D_
+_x000D__x000D_
+	1.门诊业务_x000D_
+_x000D__x000D_
+	2.门诊处方_x000D_
+_x000D__x000D_
+	3.门诊收入页面指标进行功能测试/sql编写/修改/页面信息展示比对_x000D_
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2702,10 +2848,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3020,11 +3166,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H262"/>
+  <dimension ref="A1:H279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E257" sqref="E257"/>
+      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D279" sqref="D279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="13.8"/>
@@ -4074,7 +4220,7 @@
       <c r="F49" s="6">
         <v>2</v>
       </c>
-      <c r="G49" s="26">
+      <c r="G49" s="27">
         <v>43971.744328703702</v>
       </c>
       <c r="H49" s="9" t="s">
@@ -4097,7 +4243,7 @@
       <c r="F50" s="6">
         <v>4</v>
       </c>
-      <c r="G50" s="26">
+      <c r="G50" s="27">
         <v>43971.746064814812</v>
       </c>
     </row>
@@ -4117,7 +4263,7 @@
       <c r="F51" s="6">
         <v>1</v>
       </c>
-      <c r="G51" s="26">
+      <c r="G51" s="27">
         <v>43971.748067129629</v>
       </c>
     </row>
@@ -4137,7 +4283,7 @@
       <c r="F52" s="6">
         <v>0.5</v>
       </c>
-      <c r="G52" s="26">
+      <c r="G52" s="27">
         <v>43971.750347222223</v>
       </c>
     </row>
@@ -4157,7 +4303,7 @@
       <c r="F53" s="6">
         <v>0.5</v>
       </c>
-      <c r="G53" s="26">
+      <c r="G53" s="27">
         <v>43971.751215277778</v>
       </c>
     </row>
@@ -4177,7 +4323,7 @@
       <c r="F54" s="6">
         <v>0.5</v>
       </c>
-      <c r="G54" s="26">
+      <c r="G54" s="27">
         <v>43971.743159722217</v>
       </c>
     </row>
@@ -4197,7 +4343,7 @@
       <c r="F55" s="6">
         <v>3</v>
       </c>
-      <c r="G55" s="26">
+      <c r="G55" s="27">
         <v>43971.750937500001</v>
       </c>
       <c r="H55" s="9" t="s">
@@ -4220,7 +4366,7 @@
       <c r="F56" s="6">
         <v>2</v>
       </c>
-      <c r="G56" s="26">
+      <c r="G56" s="27">
         <v>43971.751030092593</v>
       </c>
       <c r="H56" s="9" t="s">
@@ -4243,7 +4389,7 @@
       <c r="F57" s="6">
         <v>0.5</v>
       </c>
-      <c r="G57" s="26">
+      <c r="G57" s="27">
         <v>43971.754131944443</v>
       </c>
     </row>
@@ -4263,7 +4409,7 @@
       <c r="F58" s="6">
         <v>2</v>
       </c>
-      <c r="G58" s="26">
+      <c r="G58" s="27">
         <v>43971.757743055547</v>
       </c>
     </row>
@@ -4286,7 +4432,7 @@
       <c r="F59" s="6">
         <v>5</v>
       </c>
-      <c r="G59" s="26">
+      <c r="G59" s="27">
         <v>43971.749606481477</v>
       </c>
       <c r="H59" s="9" t="s">
@@ -4309,7 +4455,7 @@
       <c r="F60" s="6">
         <v>0.5</v>
       </c>
-      <c r="G60" s="26">
+      <c r="G60" s="27">
         <v>43971.750208333331</v>
       </c>
     </row>
@@ -4332,7 +4478,7 @@
       <c r="F61" s="6">
         <v>2</v>
       </c>
-      <c r="G61" s="26">
+      <c r="G61" s="27">
         <v>43971.753634259258</v>
       </c>
       <c r="H61" s="9" t="s">
@@ -4355,7 +4501,7 @@
       <c r="F62" s="6">
         <v>0.5</v>
       </c>
-      <c r="G62" s="26">
+      <c r="G62" s="27">
         <v>43971.754189814812</v>
       </c>
     </row>
@@ -4375,7 +4521,7 @@
       <c r="F63" s="6">
         <v>1</v>
       </c>
-      <c r="G63" s="26">
+      <c r="G63" s="27">
         <v>43972.749976851846</v>
       </c>
       <c r="H63" s="9" t="s">
@@ -4398,7 +4544,7 @@
       <c r="F64" s="6">
         <v>1</v>
       </c>
-      <c r="G64" s="26">
+      <c r="G64" s="27">
         <v>43972.752696759257</v>
       </c>
       <c r="H64" s="9" t="s">
@@ -4421,7 +4567,7 @@
       <c r="F65" s="6">
         <v>4</v>
       </c>
-      <c r="G65" s="26">
+      <c r="G65" s="27">
         <v>43972.756249999999</v>
       </c>
       <c r="H65" s="9" t="s">
@@ -4444,7 +4590,7 @@
       <c r="F66" s="6">
         <v>1</v>
       </c>
-      <c r="G66" s="26">
+      <c r="G66" s="27">
         <v>43972.756307870368</v>
       </c>
       <c r="H66" s="9" t="s">
@@ -4467,7 +4613,7 @@
       <c r="F67" s="6">
         <v>1</v>
       </c>
-      <c r="G67" s="26">
+      <c r="G67" s="27">
         <v>43972.757175925923</v>
       </c>
     </row>
@@ -4487,7 +4633,7 @@
       <c r="F68" s="6">
         <v>1</v>
       </c>
-      <c r="G68" s="26">
+      <c r="G68" s="27">
         <v>43972.74391203704</v>
       </c>
     </row>
@@ -4507,7 +4653,7 @@
       <c r="F69" s="6">
         <v>2</v>
       </c>
-      <c r="G69" s="26">
+      <c r="G69" s="27">
         <v>43972.746724537043</v>
       </c>
       <c r="H69" s="9" t="s">
@@ -4530,7 +4676,7 @@
       <c r="F70" s="6">
         <v>1</v>
       </c>
-      <c r="G70" s="26">
+      <c r="G70" s="27">
         <v>43972.74832175926</v>
       </c>
       <c r="H70" s="9" t="s">
@@ -4553,7 +4699,7 @@
       <c r="F71" s="6">
         <v>3.5</v>
       </c>
-      <c r="G71" s="26">
+      <c r="G71" s="27">
         <v>43972.750590277778</v>
       </c>
       <c r="H71" s="9" t="s">
@@ -4576,7 +4722,7 @@
       <c r="F72" s="6">
         <v>0.5</v>
       </c>
-      <c r="G72" s="26">
+      <c r="G72" s="27">
         <v>43972.751956018517</v>
       </c>
     </row>
@@ -4596,7 +4742,7 @@
       <c r="F73" s="6">
         <v>0.5</v>
       </c>
-      <c r="G73" s="26">
+      <c r="G73" s="27">
         <v>43972.740694444459</v>
       </c>
     </row>
@@ -4616,7 +4762,7 @@
       <c r="F74" s="6">
         <v>1</v>
       </c>
-      <c r="G74" s="26">
+      <c r="G74" s="27">
         <v>43972.742696759262</v>
       </c>
       <c r="H74" s="9" t="s">
@@ -4639,7 +4785,7 @@
       <c r="F75" s="6">
         <v>2.5</v>
       </c>
-      <c r="G75" s="26">
+      <c r="G75" s="27">
         <v>43972.747430555559</v>
       </c>
       <c r="H75" s="8" t="s">
@@ -4662,7 +4808,7 @@
       <c r="F76" s="6">
         <v>2</v>
       </c>
-      <c r="G76" s="26">
+      <c r="G76" s="27">
         <v>43972.755798611113</v>
       </c>
       <c r="H76" s="9" t="s">
@@ -4685,7 +4831,7 @@
       <c r="F77" s="6">
         <v>1</v>
       </c>
-      <c r="G77" s="26">
+      <c r="G77" s="27">
         <v>43972.759409722217</v>
       </c>
     </row>
@@ -4705,7 +4851,7 @@
       <c r="F78" s="6">
         <v>1</v>
       </c>
-      <c r="G78" s="26">
+      <c r="G78" s="27">
         <v>43972.761597222219</v>
       </c>
       <c r="H78" s="9" t="s">
@@ -4728,7 +4874,7 @@
       <c r="F79" s="6">
         <v>1</v>
       </c>
-      <c r="G79" s="26">
+      <c r="G79" s="27">
         <v>43972.714618055557</v>
       </c>
       <c r="H79" s="8" t="s">
@@ -4754,7 +4900,7 @@
       <c r="F80" s="6">
         <v>5</v>
       </c>
-      <c r="G80" s="26">
+      <c r="G80" s="27">
         <v>43972.749305555553</v>
       </c>
       <c r="H80" s="9" t="s">
@@ -4780,7 +4926,7 @@
       <c r="F81" s="6">
         <v>1.5</v>
       </c>
-      <c r="G81" s="26">
+      <c r="G81" s="27">
         <v>43972.754560185182</v>
       </c>
       <c r="H81" s="9" t="s">
@@ -4803,7 +4949,7 @@
       <c r="F82" s="6">
         <v>0.5</v>
       </c>
-      <c r="G82" s="26">
+      <c r="G82" s="27">
         <v>43972.755185185182</v>
       </c>
     </row>
@@ -4823,7 +4969,7 @@
       <c r="F83" s="6">
         <v>1</v>
       </c>
-      <c r="G83" s="26">
+      <c r="G83" s="27">
         <v>43973.769884259258</v>
       </c>
     </row>
@@ -4843,7 +4989,7 @@
       <c r="F84" s="6">
         <v>2</v>
       </c>
-      <c r="G84" s="26">
+      <c r="G84" s="27">
         <v>43973.772291666668</v>
       </c>
       <c r="H84" s="9" t="s">
@@ -4866,7 +5012,7 @@
       <c r="F85" s="6">
         <v>5</v>
       </c>
-      <c r="G85" s="26">
+      <c r="G85" s="27">
         <v>43973.775034722217</v>
       </c>
       <c r="H85" s="9" t="s">
@@ -4889,7 +5035,7 @@
       <c r="F86" s="6">
         <v>3</v>
       </c>
-      <c r="G86" s="26">
+      <c r="G86" s="27">
         <v>43973.731145833342</v>
       </c>
       <c r="H86" s="9" t="s">
@@ -4912,7 +5058,7 @@
       <c r="F87" s="6">
         <v>1</v>
       </c>
-      <c r="G87" s="26">
+      <c r="G87" s="27">
         <v>43973.731296296311</v>
       </c>
     </row>
@@ -4932,7 +5078,7 @@
       <c r="F88" s="6">
         <v>3</v>
       </c>
-      <c r="G88" s="26">
+      <c r="G88" s="27">
         <v>43973.73141203705</v>
       </c>
       <c r="H88" s="9" t="s">
@@ -4955,7 +5101,7 @@
       <c r="F89" s="6">
         <v>0.5</v>
       </c>
-      <c r="G89" s="26">
+      <c r="G89" s="27">
         <v>43973.732175925928</v>
       </c>
     </row>
@@ -4975,7 +5121,7 @@
       <c r="F90" s="6">
         <v>0.5</v>
       </c>
-      <c r="G90" s="26">
+      <c r="G90" s="27">
         <v>43973.732847222222</v>
       </c>
       <c r="H90" s="9" t="s">
@@ -4995,7 +5141,7 @@
       <c r="F91" s="6">
         <v>0.5</v>
       </c>
-      <c r="G91" s="26">
+      <c r="G91" s="27">
         <v>43973.74596064815</v>
       </c>
       <c r="H91" s="9" t="s">
@@ -5018,7 +5164,7 @@
       <c r="F92" s="6">
         <v>3.5</v>
       </c>
-      <c r="G92" s="26">
+      <c r="G92" s="27">
         <v>43973.752696759257</v>
       </c>
     </row>
@@ -5038,7 +5184,7 @@
       <c r="F93" s="6">
         <v>2</v>
       </c>
-      <c r="G93" s="26">
+      <c r="G93" s="27">
         <v>43973.758182870377</v>
       </c>
     </row>
@@ -5058,7 +5204,7 @@
       <c r="F94" s="6">
         <v>2</v>
       </c>
-      <c r="G94" s="26">
+      <c r="G94" s="27">
         <v>43973.758252314823</v>
       </c>
     </row>
@@ -5078,7 +5224,7 @@
       <c r="F95" s="6">
         <v>0.5</v>
       </c>
-      <c r="G95" s="26">
+      <c r="G95" s="27">
         <v>43973.739004629628</v>
       </c>
     </row>
@@ -5101,7 +5247,7 @@
       <c r="F96" s="6">
         <v>3.5</v>
       </c>
-      <c r="G96" s="26">
+      <c r="G96" s="27">
         <v>43973.749965277791</v>
       </c>
       <c r="H96" s="9" t="s">
@@ -5127,7 +5273,7 @@
       <c r="F97" s="6">
         <v>3</v>
       </c>
-      <c r="G97" s="26">
+      <c r="G97" s="27">
         <v>43973.75372685185</v>
       </c>
       <c r="H97" s="9" t="s">
@@ -5150,7 +5296,7 @@
       <c r="F98" s="6">
         <v>0.5</v>
       </c>
-      <c r="G98" s="26">
+      <c r="G98" s="27">
         <v>43973.755891203713</v>
       </c>
     </row>
@@ -5170,7 +5316,7 @@
       <c r="F99" s="6">
         <v>0.5</v>
       </c>
-      <c r="G99" s="26">
+      <c r="G99" s="27">
         <v>43973.756030092591</v>
       </c>
     </row>
@@ -5190,7 +5336,7 @@
       <c r="F100" s="6">
         <v>1</v>
       </c>
-      <c r="G100" s="26">
+      <c r="G100" s="27">
         <v>43976.955416666657</v>
       </c>
     </row>
@@ -5210,7 +5356,7 @@
       <c r="F101" s="6">
         <v>3</v>
       </c>
-      <c r="G101" s="26">
+      <c r="G101" s="27">
         <v>43976.96442129631</v>
       </c>
     </row>
@@ -5230,7 +5376,7 @@
       <c r="F102" s="6">
         <v>3</v>
       </c>
-      <c r="G102" s="26">
+      <c r="G102" s="27">
         <v>43976.964467592603</v>
       </c>
       <c r="H102" s="9" t="s">
@@ -5253,7 +5399,7 @@
       <c r="F103" s="6">
         <v>2</v>
       </c>
-      <c r="G103" s="26">
+      <c r="G103" s="27">
         <v>43976.96510416668</v>
       </c>
       <c r="H103" s="9" t="s">
@@ -5276,7 +5422,7 @@
       <c r="F104" s="6">
         <v>4.5</v>
       </c>
-      <c r="G104" s="26">
+      <c r="G104" s="27">
         <v>43976.998750000013</v>
       </c>
       <c r="H104" s="9" t="s">
@@ -5299,7 +5445,7 @@
       <c r="F105" s="6">
         <v>3</v>
       </c>
-      <c r="G105" s="26">
+      <c r="G105" s="27">
         <v>43976.748182870368</v>
       </c>
       <c r="H105" s="9" t="s">
@@ -5322,7 +5468,7 @@
       <c r="F106" s="6">
         <v>3</v>
       </c>
-      <c r="G106" s="26">
+      <c r="G106" s="27">
         <v>43976.749988425923</v>
       </c>
       <c r="H106" s="9" t="s">
@@ -5342,7 +5488,7 @@
       <c r="F107" s="6">
         <v>0.5</v>
       </c>
-      <c r="G107" s="26">
+      <c r="G107" s="27">
         <v>43976.750335648147</v>
       </c>
     </row>
@@ -5359,7 +5505,7 @@
       <c r="F108" s="6">
         <v>0.5</v>
       </c>
-      <c r="G108" s="26">
+      <c r="G108" s="27">
         <v>43976.750949074078</v>
       </c>
     </row>
@@ -5379,7 +5525,7 @@
       <c r="F109" s="6">
         <v>0.5</v>
       </c>
-      <c r="G109" s="26">
+      <c r="G109" s="27">
         <v>43976.75545138889</v>
       </c>
     </row>
@@ -5399,7 +5545,7 @@
       <c r="F110" s="6">
         <v>1.5</v>
       </c>
-      <c r="G110" s="26">
+      <c r="G110" s="27">
         <v>43976.759895833333</v>
       </c>
       <c r="H110" s="9" t="s">
@@ -5422,7 +5568,7 @@
       <c r="F111" s="6">
         <v>3</v>
       </c>
-      <c r="G111" s="26">
+      <c r="G111" s="27">
         <v>43976.763402777768</v>
       </c>
       <c r="H111" s="9" t="s">
@@ -5445,7 +5591,7 @@
       <c r="F112" s="6">
         <v>1</v>
       </c>
-      <c r="G112" s="26">
+      <c r="G112" s="27">
         <v>43976.764479166668</v>
       </c>
       <c r="H112" s="9" t="s">
@@ -5468,7 +5614,7 @@
       <c r="F113" s="6">
         <v>2</v>
       </c>
-      <c r="G113" s="26">
+      <c r="G113" s="27">
         <v>43976.765972222223</v>
       </c>
       <c r="H113" s="9" t="s">
@@ -5494,7 +5640,7 @@
       <c r="F114" s="6">
         <v>1</v>
       </c>
-      <c r="G114" s="26">
+      <c r="G114" s="27">
         <v>43976.679606481477</v>
       </c>
       <c r="H114" s="9" t="s">
@@ -5517,7 +5663,7 @@
       <c r="F115" s="6">
         <v>0.5</v>
       </c>
-      <c r="G115" s="26">
+      <c r="G115" s="27">
         <v>43976.680092592593</v>
       </c>
     </row>
@@ -5534,7 +5680,7 @@
       <c r="F116" s="6">
         <v>0.5</v>
       </c>
-      <c r="G116" s="26">
+      <c r="G116" s="27">
         <v>43976.682002314818</v>
       </c>
     </row>
@@ -5557,7 +5703,7 @@
       <c r="F117" s="6">
         <v>3.5</v>
       </c>
-      <c r="G117" s="26">
+      <c r="G117" s="27">
         <v>43976.738379629627</v>
       </c>
       <c r="H117" s="9" t="s">
@@ -5583,7 +5729,7 @@
       <c r="F118" s="6">
         <v>2.5</v>
       </c>
-      <c r="G118" s="26">
+      <c r="G118" s="27">
         <v>43976.750219907408</v>
       </c>
       <c r="H118" s="9" t="s">
@@ -5606,7 +5752,7 @@
       <c r="F119" s="6">
         <v>2</v>
       </c>
-      <c r="G119" s="26">
+      <c r="G119" s="27">
         <v>43977.848865740743</v>
       </c>
     </row>
@@ -5626,7 +5772,7 @@
       <c r="F120" s="6">
         <v>1</v>
       </c>
-      <c r="G120" s="26">
+      <c r="G120" s="27">
         <v>43977.848946759259</v>
       </c>
       <c r="H120" s="9" t="s">
@@ -5649,7 +5795,7 @@
       <c r="F121" s="6">
         <v>4</v>
       </c>
-      <c r="G121" s="26">
+      <c r="G121" s="27">
         <v>43977.849016203712</v>
       </c>
     </row>
@@ -5669,7 +5815,7 @@
       <c r="F122" s="6">
         <v>1</v>
       </c>
-      <c r="G122" s="26">
+      <c r="G122" s="27">
         <v>43977.849895833337</v>
       </c>
     </row>
@@ -5689,7 +5835,7 @@
       <c r="F123" s="6">
         <v>2</v>
       </c>
-      <c r="G123" s="26">
+      <c r="G123" s="27">
         <v>43977.748657407421</v>
       </c>
       <c r="H123" s="9" t="s">
@@ -5709,7 +5855,7 @@
       <c r="F124" s="6">
         <v>0.5</v>
       </c>
-      <c r="G124" s="26">
+      <c r="G124" s="27">
         <v>43977.749594907422</v>
       </c>
     </row>
@@ -5729,7 +5875,7 @@
       <c r="F125" s="6">
         <v>3</v>
       </c>
-      <c r="G125" s="26">
+      <c r="G125" s="27">
         <v>43977.749652777791</v>
       </c>
       <c r="H125" s="9" t="s">
@@ -5752,7 +5898,7 @@
       <c r="F126" s="6">
         <v>2</v>
       </c>
-      <c r="G126" s="26">
+      <c r="G126" s="27">
         <v>43977.749710648153</v>
       </c>
       <c r="H126" s="9" t="s">
@@ -5772,7 +5918,7 @@
       <c r="F127" s="6">
         <v>0.5</v>
       </c>
-      <c r="G127" s="26">
+      <c r="G127" s="27">
         <v>43977.75018518517</v>
       </c>
     </row>
@@ -5792,7 +5938,7 @@
       <c r="F128" s="6">
         <v>0.5</v>
       </c>
-      <c r="G128" s="26">
+      <c r="G128" s="27">
         <v>43977.742731481478</v>
       </c>
     </row>
@@ -5812,7 +5958,7 @@
       <c r="F129" s="6">
         <v>1.5</v>
       </c>
-      <c r="G129" s="26">
+      <c r="G129" s="27">
         <v>43977.747523148151</v>
       </c>
       <c r="H129" s="9" t="s">
@@ -5835,7 +5981,7 @@
       <c r="F130" s="6">
         <v>2</v>
       </c>
-      <c r="G130" s="26">
+      <c r="G130" s="27">
         <v>43977.750555555547</v>
       </c>
     </row>
@@ -5855,7 +6001,7 @@
       <c r="F131" s="6">
         <v>4</v>
       </c>
-      <c r="G131" s="26">
+      <c r="G131" s="27">
         <v>43977.757465277777</v>
       </c>
       <c r="H131" s="9" t="s">
@@ -5878,7 +6024,7 @@
       <c r="F132" s="6">
         <v>0.5</v>
       </c>
-      <c r="G132" s="26">
+      <c r="G132" s="27">
         <v>43977.729861111111</v>
       </c>
     </row>
@@ -5901,7 +6047,7 @@
       <c r="F133" s="6">
         <v>4</v>
       </c>
-      <c r="G133" s="26">
+      <c r="G133" s="27">
         <v>43977.735196759262</v>
       </c>
       <c r="H133" s="9" t="s">
@@ -5921,7 +6067,7 @@
       <c r="F134" s="6">
         <v>0.5</v>
       </c>
-      <c r="G134" s="26">
+      <c r="G134" s="27">
         <v>43977.741041666668</v>
       </c>
     </row>
@@ -5944,7 +6090,7 @@
       <c r="F135" s="6">
         <v>3</v>
       </c>
-      <c r="G135" s="26">
+      <c r="G135" s="27">
         <v>43977.742986111109</v>
       </c>
       <c r="H135" s="9" t="s">
@@ -5967,7 +6113,7 @@
       <c r="F136" s="6">
         <v>1</v>
       </c>
-      <c r="G136" s="26">
+      <c r="G136" s="27">
         <v>43978.751134259262</v>
       </c>
     </row>
@@ -5987,7 +6133,7 @@
       <c r="F137" s="6">
         <v>1</v>
       </c>
-      <c r="G137" s="26">
+      <c r="G137" s="27">
         <v>43978.757743055547</v>
       </c>
       <c r="H137" s="9" t="s">
@@ -6010,7 +6156,7 @@
       <c r="F138" s="6">
         <v>2</v>
       </c>
-      <c r="G138" s="26">
+      <c r="G138" s="27">
         <v>43978.757789351846</v>
       </c>
     </row>
@@ -6030,7 +6176,7 @@
       <c r="F139" s="6">
         <v>1</v>
       </c>
-      <c r="G139" s="26">
+      <c r="G139" s="27">
         <v>43978.759189814817</v>
       </c>
     </row>
@@ -6050,7 +6196,7 @@
       <c r="F140" s="6">
         <v>2</v>
       </c>
-      <c r="G140" s="26">
+      <c r="G140" s="27">
         <v>43978.762407407397</v>
       </c>
     </row>
@@ -6070,7 +6216,7 @@
       <c r="F141" s="6">
         <v>1</v>
       </c>
-      <c r="G141" s="26">
+      <c r="G141" s="27">
         <v>43978.762465277781</v>
       </c>
     </row>
@@ -6090,7 +6236,7 @@
       <c r="F142" s="6">
         <v>2</v>
       </c>
-      <c r="G142" s="26">
+      <c r="G142" s="27">
         <v>43978.749421296299</v>
       </c>
       <c r="H142" s="9" t="s">
@@ -6113,7 +6259,7 @@
       <c r="F143" s="6">
         <v>2</v>
       </c>
-      <c r="G143" s="26">
+      <c r="G143" s="27">
         <v>43978.750335648147</v>
       </c>
       <c r="H143" s="9" t="s">
@@ -6133,7 +6279,7 @@
       <c r="F144" s="6">
         <v>0.5</v>
       </c>
-      <c r="G144" s="26">
+      <c r="G144" s="27">
         <v>43978.75099537037</v>
       </c>
     </row>
@@ -6153,7 +6299,7 @@
       <c r="F145" s="6">
         <v>3.5</v>
       </c>
-      <c r="G145" s="26">
+      <c r="G145" s="27">
         <v>43978.753263888888</v>
       </c>
       <c r="H145" s="9" t="s">
@@ -6176,7 +6322,7 @@
       <c r="F146" s="6">
         <v>0.5</v>
       </c>
-      <c r="G146" s="26">
+      <c r="G146" s="27">
         <v>43978.746574074088</v>
       </c>
     </row>
@@ -6196,7 +6342,7 @@
       <c r="F147" s="6">
         <v>3</v>
       </c>
-      <c r="G147" s="26">
+      <c r="G147" s="27">
         <v>43978.752349537041</v>
       </c>
       <c r="H147" s="9" t="s">
@@ -6219,7 +6365,7 @@
       <c r="F148" s="6">
         <v>2</v>
       </c>
-      <c r="G148" s="26">
+      <c r="G148" s="27">
         <v>43978.752615740741</v>
       </c>
     </row>
@@ -6239,7 +6385,7 @@
       <c r="F149" s="6">
         <v>2.5</v>
       </c>
-      <c r="G149" s="26">
+      <c r="G149" s="27">
         <v>43978.75285879631</v>
       </c>
     </row>
@@ -6262,7 +6408,7 @@
       <c r="F150" s="6">
         <v>1.5</v>
       </c>
-      <c r="G150" s="26">
+      <c r="G150" s="27">
         <v>43978.706041666657</v>
       </c>
       <c r="H150" s="9" t="s">
@@ -6288,7 +6434,7 @@
       <c r="F151" s="6">
         <v>2.5</v>
       </c>
-      <c r="G151" s="26">
+      <c r="G151" s="27">
         <v>43978.711921296293</v>
       </c>
     </row>
@@ -6311,7 +6457,7 @@
       <c r="F152" s="6">
         <v>1.5</v>
       </c>
-      <c r="G152" s="26">
+      <c r="G152" s="27">
         <v>43978.7120601852</v>
       </c>
     </row>
@@ -6334,7 +6480,7 @@
       <c r="F153" s="6">
         <v>2</v>
       </c>
-      <c r="G153" s="26">
+      <c r="G153" s="27">
         <v>43978.755381944429</v>
       </c>
     </row>
@@ -6351,7 +6497,7 @@
       <c r="F154" s="6">
         <v>0.5</v>
       </c>
-      <c r="G154" s="26">
+      <c r="G154" s="27">
         <v>43978.75600694443</v>
       </c>
     </row>
@@ -6371,7 +6517,7 @@
       <c r="F155" s="6">
         <v>2</v>
       </c>
-      <c r="G155" s="26">
+      <c r="G155" s="27">
         <v>43979.763414351852</v>
       </c>
     </row>
@@ -6391,7 +6537,7 @@
       <c r="F156" s="6">
         <v>0.5</v>
       </c>
-      <c r="G156" s="26">
+      <c r="G156" s="27">
         <v>43979.763460648152</v>
       </c>
     </row>
@@ -6411,7 +6557,7 @@
       <c r="F157" s="6">
         <v>1</v>
       </c>
-      <c r="G157" s="26">
+      <c r="G157" s="27">
         <v>43979.764999999999</v>
       </c>
     </row>
@@ -6431,7 +6577,7 @@
       <c r="F158" s="6">
         <v>1.5</v>
       </c>
-      <c r="G158" s="26">
+      <c r="G158" s="27">
         <v>43979.766759259262</v>
       </c>
       <c r="H158" s="9" t="s">
@@ -6454,7 +6600,7 @@
       <c r="F159" s="6">
         <v>3</v>
       </c>
-      <c r="G159" s="26">
+      <c r="G159" s="27">
         <v>43979.770821759259</v>
       </c>
       <c r="H159" s="9" t="s">
@@ -6477,7 +6623,7 @@
       <c r="F160" s="6">
         <v>2</v>
       </c>
-      <c r="G160" s="26">
+      <c r="G160" s="27">
         <v>43979.745057870372</v>
       </c>
       <c r="H160" s="9" t="s">
@@ -6500,7 +6646,7 @@
       <c r="F161" s="6">
         <v>2</v>
       </c>
-      <c r="G161" s="26">
+      <c r="G161" s="27">
         <v>43979.746203703689</v>
       </c>
       <c r="H161" s="9" t="s">
@@ -6523,7 +6669,7 @@
       <c r="F162" s="6">
         <v>0.5</v>
       </c>
-      <c r="G162" s="26">
+      <c r="G162" s="27">
         <v>43979.746990740743</v>
       </c>
     </row>
@@ -6543,7 +6689,7 @@
       <c r="F163" s="6">
         <v>3.5</v>
       </c>
-      <c r="G163" s="26">
+      <c r="G163" s="27">
         <v>43979.7504976852</v>
       </c>
       <c r="H163" s="9" t="s">
@@ -6566,7 +6712,7 @@
       <c r="F164" s="6">
         <v>0.5</v>
       </c>
-      <c r="G164" s="26">
+      <c r="G164" s="27">
         <v>43979.743761574071</v>
       </c>
     </row>
@@ -6586,7 +6732,7 @@
       <c r="F165" s="6">
         <v>1.5</v>
       </c>
-      <c r="G165" s="26">
+      <c r="G165" s="27">
         <v>43979.745787037027</v>
       </c>
       <c r="H165" s="9" t="s">
@@ -6609,7 +6755,7 @@
       <c r="F166" s="6">
         <v>1</v>
       </c>
-      <c r="G166" s="26">
+      <c r="G166" s="27">
         <v>43979.748078703713</v>
       </c>
       <c r="H166" s="9" t="s">
@@ -6632,7 +6778,7 @@
       <c r="F167" s="6">
         <v>5</v>
       </c>
-      <c r="G167" s="26">
+      <c r="G167" s="27">
         <v>43979.751666666663</v>
       </c>
       <c r="H167" s="9" t="s">
@@ -6655,7 +6801,7 @@
       <c r="F168" s="6">
         <v>1.5</v>
       </c>
-      <c r="G168" s="26">
+      <c r="G168" s="27">
         <v>43979.713321759264</v>
       </c>
     </row>
@@ -6672,7 +6818,7 @@
       <c r="F169" s="6">
         <v>0.5</v>
       </c>
-      <c r="G169" s="26">
+      <c r="G169" s="27">
         <v>43979.713703703717</v>
       </c>
     </row>
@@ -6692,7 +6838,7 @@
       <c r="F170" s="6">
         <v>0.5</v>
       </c>
-      <c r="G170" s="26">
+      <c r="G170" s="27">
         <v>43979.714594907397</v>
       </c>
     </row>
@@ -6715,7 +6861,7 @@
       <c r="F171" s="6">
         <v>2</v>
       </c>
-      <c r="G171" s="26">
+      <c r="G171" s="27">
         <v>43979.748136574082</v>
       </c>
       <c r="H171" s="9" t="s">
@@ -6741,7 +6887,7 @@
       <c r="F172" s="6">
         <v>3.5</v>
       </c>
-      <c r="G172" s="26">
+      <c r="G172" s="27">
         <v>43979.748240740737</v>
       </c>
       <c r="H172" s="9" t="s">
@@ -6764,7 +6910,7 @@
       <c r="F173" s="6">
         <v>2.5</v>
       </c>
-      <c r="G173" s="26">
+      <c r="G173" s="27">
         <v>43980.77611111111</v>
       </c>
       <c r="H173" s="9" t="s">
@@ -6787,7 +6933,7 @@
       <c r="F174" s="6">
         <v>0.5</v>
       </c>
-      <c r="G174" s="26">
+      <c r="G174" s="27">
         <v>43980.776643518519</v>
       </c>
     </row>
@@ -6807,7 +6953,7 @@
       <c r="F175" s="6">
         <v>1</v>
       </c>
-      <c r="G175" s="26">
+      <c r="G175" s="27">
         <v>43980.777696759258</v>
       </c>
       <c r="H175" s="9" t="s">
@@ -6830,7 +6976,7 @@
       <c r="F176" s="6">
         <v>0.5</v>
       </c>
-      <c r="G176" s="26">
+      <c r="G176" s="27">
         <v>43980.741111111107</v>
       </c>
       <c r="H176" s="9" t="s">
@@ -6853,7 +6999,7 @@
       <c r="F177" s="6">
         <v>1</v>
       </c>
-      <c r="G177" s="26">
+      <c r="G177" s="27">
         <v>43980.741886574076</v>
       </c>
       <c r="H177" s="9" t="s">
@@ -6876,7 +7022,7 @@
       <c r="F178" s="6">
         <v>2</v>
       </c>
-      <c r="G178" s="26">
+      <c r="G178" s="27">
         <v>43980.742824074077</v>
       </c>
       <c r="H178" s="9" t="s">
@@ -6899,7 +7045,7 @@
       <c r="F179" s="6">
         <v>4</v>
       </c>
-      <c r="G179" s="26">
+      <c r="G179" s="27">
         <v>43980.744386574072</v>
       </c>
       <c r="H179" s="9" t="s">
@@ -6919,7 +7065,7 @@
       <c r="F180" s="6">
         <v>0.5</v>
       </c>
-      <c r="G180" s="26">
+      <c r="G180" s="27">
         <v>43980.744895833333</v>
       </c>
     </row>
@@ -6939,7 +7085,7 @@
       <c r="F181" s="6">
         <v>0.5</v>
       </c>
-      <c r="G181" s="26">
+      <c r="G181" s="27">
         <v>43980.74832175926</v>
       </c>
     </row>
@@ -6959,7 +7105,7 @@
       <c r="F182" s="6">
         <v>1.5</v>
       </c>
-      <c r="G182" s="26">
+      <c r="G182" s="27">
         <v>43980.759421296287</v>
       </c>
     </row>
@@ -6979,7 +7125,7 @@
       <c r="F183" s="6">
         <v>3</v>
       </c>
-      <c r="G183" s="26">
+      <c r="G183" s="27">
         <v>43980.760451388887</v>
       </c>
     </row>
@@ -6999,7 +7145,7 @@
       <c r="F184" s="6">
         <v>3</v>
       </c>
-      <c r="G184" s="26">
+      <c r="G184" s="27">
         <v>43980.760740740741</v>
       </c>
       <c r="H184" s="9" t="s">
@@ -7019,7 +7165,7 @@
       <c r="F185" s="6">
         <v>0.5</v>
       </c>
-      <c r="G185" s="26">
+      <c r="G185" s="27">
         <v>43980.717430555553</v>
       </c>
     </row>
@@ -7039,7 +7185,7 @@
       <c r="F186" s="6">
         <v>0.5</v>
       </c>
-      <c r="G186" s="26">
+      <c r="G186" s="27">
         <v>43980.718136574083</v>
       </c>
     </row>
@@ -7062,7 +7208,7 @@
       <c r="F187" s="6">
         <v>1</v>
       </c>
-      <c r="G187" s="26">
+      <c r="G187" s="27">
         <v>43980.723356481481</v>
       </c>
       <c r="H187" s="9" t="s">
@@ -7088,7 +7234,7 @@
       <c r="F188" s="6">
         <v>3</v>
       </c>
-      <c r="G188" s="26">
+      <c r="G188" s="27">
         <v>43980.727175925917</v>
       </c>
       <c r="H188" s="9" t="s">
@@ -7114,7 +7260,7 @@
       <c r="F189" s="6">
         <v>1.5</v>
       </c>
-      <c r="G189" s="26">
+      <c r="G189" s="27">
         <v>43980.731053240743</v>
       </c>
       <c r="H189" s="9" t="s">
@@ -7140,7 +7286,7 @@
       <c r="F190" s="6">
         <v>1.5</v>
       </c>
-      <c r="G190" s="26">
+      <c r="G190" s="27">
         <v>43980.733356481483</v>
       </c>
       <c r="H190" s="9" t="s">
@@ -7163,7 +7309,7 @@
       <c r="F191" s="6">
         <v>3</v>
       </c>
-      <c r="G191" s="26">
+      <c r="G191" s="27">
         <v>43983.752500000002</v>
       </c>
       <c r="H191" s="9" t="s">
@@ -7186,7 +7332,7 @@
       <c r="F192" s="6">
         <v>2</v>
       </c>
-      <c r="G192" s="26">
+      <c r="G192" s="27">
         <v>43983.753668981481</v>
       </c>
       <c r="H192" s="9" t="s">
@@ -7209,7 +7355,7 @@
       <c r="F193" s="6">
         <v>1.5</v>
       </c>
-      <c r="G193" s="26">
+      <c r="G193" s="27">
         <v>43983.754490740743</v>
       </c>
     </row>
@@ -7229,7 +7375,7 @@
       <c r="F194" s="6">
         <v>1.5</v>
       </c>
-      <c r="G194" s="26">
+      <c r="G194" s="27">
         <v>43983.755960648137</v>
       </c>
     </row>
@@ -7249,7 +7395,7 @@
       <c r="F195" s="6">
         <v>4</v>
       </c>
-      <c r="G195" s="26">
+      <c r="G195" s="27">
         <v>43983.75309027778</v>
       </c>
       <c r="H195" s="9" t="s">
@@ -7272,7 +7418,7 @@
       <c r="F196" s="6">
         <v>2</v>
       </c>
-      <c r="G196" s="26">
+      <c r="G196" s="27">
         <v>43983.754525462973</v>
       </c>
       <c r="H196" s="9" t="s">
@@ -7295,7 +7441,7 @@
       <c r="F197" s="6">
         <v>1</v>
       </c>
-      <c r="G197" s="26">
+      <c r="G197" s="27">
         <v>43983.75576388889</v>
       </c>
       <c r="H197" s="9" t="s">
@@ -7315,7 +7461,7 @@
       <c r="F198" s="6">
         <v>0.5</v>
       </c>
-      <c r="G198" s="26">
+      <c r="G198" s="27">
         <v>43983.756157407421</v>
       </c>
     </row>
@@ -7332,7 +7478,7 @@
       <c r="F199" s="6">
         <v>0.5</v>
       </c>
-      <c r="G199" s="26">
+      <c r="G199" s="27">
         <v>43983.757048611107</v>
       </c>
     </row>
@@ -7352,7 +7498,7 @@
       <c r="F200" s="6">
         <v>0.5</v>
       </c>
-      <c r="G200" s="26">
+      <c r="G200" s="27">
         <v>43983.751064814824</v>
       </c>
     </row>
@@ -7372,7 +7518,7 @@
       <c r="F201" s="6">
         <v>1.5</v>
       </c>
-      <c r="G201" s="26">
+      <c r="G201" s="27">
         <v>43983.762407407397</v>
       </c>
       <c r="H201" s="9" t="s">
@@ -7395,7 +7541,7 @@
       <c r="F202" s="6">
         <v>3</v>
       </c>
-      <c r="G202" s="26">
+      <c r="G202" s="27">
         <v>43983.762511574059</v>
       </c>
       <c r="H202" s="9" t="s">
@@ -7418,7 +7564,7 @@
       <c r="F203" s="6">
         <v>2</v>
       </c>
-      <c r="G203" s="26">
+      <c r="G203" s="27">
         <v>43983.762581018513</v>
       </c>
     </row>
@@ -7438,7 +7584,7 @@
       <c r="F204" s="6">
         <v>1</v>
       </c>
-      <c r="G204" s="26">
+      <c r="G204" s="27">
         <v>43983.764004629629</v>
       </c>
       <c r="H204" s="9" t="s">
@@ -7458,7 +7604,7 @@
       <c r="F205" s="6">
         <v>0.5</v>
       </c>
-      <c r="G205" s="26">
+      <c r="G205" s="27">
         <v>43983.738518518527</v>
       </c>
     </row>
@@ -7481,7 +7627,7 @@
       <c r="F206" s="6">
         <v>1.5</v>
       </c>
-      <c r="G206" s="26">
+      <c r="G206" s="27">
         <v>43983.742326388892</v>
       </c>
       <c r="H206" s="9" t="s">
@@ -7507,7 +7653,7 @@
       <c r="F207" s="6">
         <v>1.5</v>
       </c>
-      <c r="G207" s="26">
+      <c r="G207" s="27">
         <v>43983.743437500001</v>
       </c>
       <c r="H207" s="9" t="s">
@@ -7530,7 +7676,7 @@
       <c r="F208" s="6">
         <v>0.5</v>
       </c>
-      <c r="G208" s="26">
+      <c r="G208" s="27">
         <v>43983.74386574074</v>
       </c>
     </row>
@@ -7553,7 +7699,7 @@
       <c r="F209" s="6">
         <v>2</v>
       </c>
-      <c r="G209" s="26">
+      <c r="G209" s="27">
         <v>43983.745636574087</v>
       </c>
       <c r="H209" s="9" t="s">
@@ -7579,7 +7725,7 @@
       <c r="F210" s="6">
         <v>2</v>
       </c>
-      <c r="G210" s="26">
+      <c r="G210" s="27">
         <v>43983.753541666672</v>
       </c>
       <c r="H210" s="9" t="s">
@@ -7602,7 +7748,7 @@
       <c r="F211" s="6">
         <v>2</v>
       </c>
-      <c r="G211" s="26">
+      <c r="G211" s="27">
         <v>43984.907916666663</v>
       </c>
       <c r="H211" s="9" t="s">
@@ -7625,7 +7771,7 @@
       <c r="F212" s="6">
         <v>1</v>
       </c>
-      <c r="G212" s="26">
+      <c r="G212" s="27">
         <v>43984.908634259264</v>
       </c>
     </row>
@@ -7645,7 +7791,7 @@
       <c r="F213" s="6">
         <v>2</v>
       </c>
-      <c r="G213" s="26">
+      <c r="G213" s="27">
         <v>43984.911435185182</v>
       </c>
       <c r="H213" s="9" t="s">
@@ -7668,7 +7814,7 @@
       <c r="F214" s="6">
         <v>3</v>
       </c>
-      <c r="G214" s="26">
+      <c r="G214" s="27">
         <v>43984.911504629628</v>
       </c>
       <c r="H214" s="9" t="s">
@@ -7688,7 +7834,7 @@
       <c r="F215" s="6">
         <v>0.5</v>
       </c>
-      <c r="G215" s="26">
+      <c r="G215" s="27">
         <v>43984.744108796287</v>
       </c>
     </row>
@@ -7708,7 +7854,7 @@
       <c r="F216" s="6">
         <v>3</v>
       </c>
-      <c r="G216" s="26">
+      <c r="G216" s="27">
         <v>43984.745393518533</v>
       </c>
       <c r="H216" s="9" t="s">
@@ -7728,7 +7874,7 @@
       <c r="F217" s="6">
         <v>0.5</v>
       </c>
-      <c r="G217" s="26">
+      <c r="G217" s="27">
         <v>43984.745856481481</v>
       </c>
     </row>
@@ -7748,7 +7894,7 @@
       <c r="F218" s="6">
         <v>4</v>
       </c>
-      <c r="G218" s="26">
+      <c r="G218" s="27">
         <v>43984.746874999997</v>
       </c>
       <c r="H218" s="9" t="s">
@@ -7771,7 +7917,7 @@
       <c r="F219" s="6">
         <v>0.5</v>
       </c>
-      <c r="G219" s="26">
+      <c r="G219" s="27">
         <v>43984.747256944458</v>
       </c>
     </row>
@@ -7794,7 +7940,7 @@
       <c r="F220" s="6">
         <v>1</v>
       </c>
-      <c r="G220" s="26">
+      <c r="G220" s="27">
         <v>43984.749826388892</v>
       </c>
     </row>
@@ -7814,7 +7960,7 @@
       <c r="F221" s="6">
         <v>2</v>
       </c>
-      <c r="G221" s="26">
+      <c r="G221" s="27">
         <v>43984.75385416668</v>
       </c>
       <c r="H221" s="9" t="s">
@@ -7837,7 +7983,7 @@
       <c r="F222" s="6">
         <v>4</v>
       </c>
-      <c r="G222" s="26">
+      <c r="G222" s="27">
         <v>43984.761516203689</v>
       </c>
       <c r="H222" s="9" t="s">
@@ -7860,7 +8006,7 @@
       <c r="F223" s="6">
         <v>0.5</v>
       </c>
-      <c r="G223" s="26">
+      <c r="G223" s="27">
         <v>43984.764016203713</v>
       </c>
       <c r="H223" s="9" t="s">
@@ -7883,7 +8029,7 @@
       <c r="F224" s="6">
         <v>0.5</v>
       </c>
-      <c r="G224" s="26">
+      <c r="G224" s="27">
         <v>43984.744421296287</v>
       </c>
     </row>
@@ -7906,7 +8052,7 @@
       <c r="F225" s="6">
         <v>3</v>
       </c>
-      <c r="G225" s="26">
+      <c r="G225" s="27">
         <v>43984.759837962964</v>
       </c>
       <c r="H225" s="9" t="s">
@@ -7932,7 +8078,7 @@
       <c r="F226" s="6">
         <v>4</v>
       </c>
-      <c r="G226" s="26">
+      <c r="G226" s="27">
         <v>43984.759895833333</v>
       </c>
       <c r="H226" s="9" t="s">
@@ -7952,7 +8098,7 @@
       <c r="F227" s="6">
         <v>0.5</v>
       </c>
-      <c r="G227" s="26">
+      <c r="G227" s="27">
         <v>43984.760555555556</v>
       </c>
     </row>
@@ -8374,465 +8520,877 @@
         <v>426</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="82.8">
-      <c r="A245" t="s">
+    <row r="245" spans="1:8" ht="82.8" customHeight="1">
+      <c r="A245" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C245" s="14" t="s">
         <v>377</v>
       </c>
       <c r="D245" s="6" t="s">
         <v>427</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="F245" t="s">
+        <v>428</v>
+      </c>
+      <c r="F245" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="G245" t="s">
-        <v>428</v>
-      </c>
-      <c r="H245" t="s">
+      <c r="G245" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="H245" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="246" spans="1:8">
-      <c r="A246" t="s">
+      <c r="A246" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="14" t="s">
         <v>377</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="F246" t="s">
+        <v>430</v>
+      </c>
+      <c r="F246" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="G246" t="s">
-        <v>430</v>
-      </c>
-      <c r="H246" t="s">
+      <c r="G246" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="H246" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="247" spans="1:8">
-      <c r="A247" t="s">
+      <c r="A247" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C247" s="14" t="s">
         <v>377</v>
       </c>
       <c r="D247" s="6" t="s">
         <v>85</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="F247" t="s">
+        <v>85</v>
+      </c>
+      <c r="F247" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="G247" t="s">
-        <v>431</v>
-      </c>
-      <c r="H247" t="s">
+      <c r="G247" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="H247" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="248" spans="1:8">
-      <c r="A248" t="s">
+      <c r="A248" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C248" s="14" t="s">
         <v>377</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="F248" t="s">
+        <v>433</v>
+      </c>
+      <c r="F248" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="G248" t="s">
-        <v>433</v>
-      </c>
-      <c r="H248" t="s">
+      <c r="G248" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="H248" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="249" spans="1:8">
-      <c r="A249" t="s">
+      <c r="A249" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C249" s="14" t="s">
         <v>377</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="F249" t="s">
+        <v>435</v>
+      </c>
+      <c r="F249" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="G249" t="s">
-        <v>435</v>
-      </c>
-      <c r="H249" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" ht="110.4">
-      <c r="A250" t="s">
+      <c r="G249" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="H249" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="110.4" customHeight="1">
+      <c r="A250" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C250" s="14" t="s">
         <v>377</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="F250" t="s">
+        <v>438</v>
+      </c>
+      <c r="F250" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="G250" t="s">
-        <v>437</v>
-      </c>
-      <c r="H250" t="s">
+      <c r="G250" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="H250" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="251" spans="1:8">
-      <c r="A251" t="s">
+      <c r="A251" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C251" s="14" t="s">
         <v>377</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="F251" t="s">
+        <v>441</v>
+      </c>
+      <c r="F251" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="G251" t="s">
-        <v>439</v>
-      </c>
-      <c r="H251" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" ht="124.2">
-      <c r="A252" t="s">
+      <c r="G251" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="H251" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="124.2" customHeight="1">
+      <c r="A252" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C252" s="14" t="s">
         <v>377</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="F252" t="s">
+        <v>444</v>
+      </c>
+      <c r="F252" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="G252" t="s">
-        <v>441</v>
-      </c>
-      <c r="H252" t="s">
+      <c r="G252" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="H252" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="253" spans="1:8">
-      <c r="A253" t="s">
+      <c r="A253" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C253" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E253"/>
-      <c r="F253" t="s">
+      <c r="E253" s="14"/>
+      <c r="F253" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="G253" t="s">
-        <v>442</v>
-      </c>
-      <c r="H253" t="s">
+      <c r="G253" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="H253" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="254" spans="1:8">
-      <c r="A254" t="s">
+      <c r="A254" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="D254" t="s">
-        <v>443</v>
-      </c>
-      <c r="E254" t="s">
+      <c r="D254" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="E254" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F254" t="s">
+      <c r="F254" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="G254" t="s">
-        <v>444</v>
-      </c>
-      <c r="H254" t="s">
+      <c r="G254" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="H254" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="255" spans="1:8">
-      <c r="A255" t="s">
+      <c r="A255" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C255" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D255" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="E255" t="s">
-        <v>445</v>
-      </c>
-      <c r="F255" t="s">
+      <c r="E255" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="F255" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="G255" t="s">
-        <v>446</v>
-      </c>
-      <c r="H255" t="s">
+      <c r="G255" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="H255" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="256" spans="1:8">
-      <c r="A256" t="s">
+      <c r="A256" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C256" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="D256" t="s">
-        <v>447</v>
-      </c>
-      <c r="E256" t="s">
-        <v>448</v>
-      </c>
-      <c r="F256" t="s">
+      <c r="D256" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="E256" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="F256" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="G256" t="s">
-        <v>449</v>
-      </c>
-      <c r="H256" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" ht="220.8">
-      <c r="A257" t="s">
+      <c r="G256" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="H256" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="220.8" customHeight="1">
+      <c r="A257" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C257" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="D257" t="s">
-        <v>450</v>
-      </c>
-      <c r="E257" s="27" t="s">
-        <v>636</v>
-      </c>
-      <c r="F257" t="s">
+      <c r="D257" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="E257" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="F257" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="G257" t="s">
-        <v>451</v>
-      </c>
-      <c r="H257" t="s">
+      <c r="G257" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="H257" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="258" spans="1:8">
-      <c r="A258" t="s">
+      <c r="A258" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C258" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E258"/>
-      <c r="F258" t="s">
+      <c r="E258" s="14"/>
+      <c r="F258" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="G258" t="s">
-        <v>452</v>
-      </c>
-      <c r="H258" t="s">
+      <c r="G258" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="H258" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="259" spans="1:8">
-      <c r="A259" t="s">
+      <c r="A259" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C259" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E259"/>
-      <c r="F259" t="s">
+      <c r="E259" s="14"/>
+      <c r="F259" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="G259" t="s">
-        <v>453</v>
-      </c>
-      <c r="H259" t="s">
+      <c r="G259" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="H259" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="260" spans="1:8">
-      <c r="A260" t="s">
+      <c r="A260" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C260" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D260" t="s">
-        <v>454</v>
-      </c>
-      <c r="E260" t="s">
-        <v>455</v>
-      </c>
-      <c r="F260" t="s">
+      <c r="D260" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="E260" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="F260" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="G260" t="s">
-        <v>456</v>
-      </c>
-      <c r="H260" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" ht="179.4">
-      <c r="A261" t="s">
+      <c r="G260" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="H260" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="179.4" customHeight="1">
+      <c r="A261" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C261" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D261" t="s">
-        <v>637</v>
-      </c>
-      <c r="E261" s="27" t="s">
-        <v>635</v>
-      </c>
-      <c r="F261" t="s">
+      <c r="D261" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="E261" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="F261" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="G261" t="s">
-        <v>457</v>
-      </c>
-      <c r="H261" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" ht="193.2">
-      <c r="A262" t="s">
+      <c r="G261" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="H261" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="193.2" customHeight="1">
+      <c r="A262" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C262" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D262" t="s">
-        <v>458</v>
-      </c>
-      <c r="E262" s="27" t="s">
-        <v>634</v>
-      </c>
-      <c r="F262" t="s">
+      <c r="D262" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="E262" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="F262" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="G262" t="s">
-        <v>459</v>
-      </c>
-      <c r="H262" t="s">
+      <c r="G262" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="H262" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="55.2">
+      <c r="A263" t="s">
+        <v>8</v>
+      </c>
+      <c r="B263" t="s">
+        <v>381</v>
+      </c>
+      <c r="C263"/>
+      <c r="D263" t="s">
+        <v>468</v>
+      </c>
+      <c r="E263" s="26" t="s">
+        <v>666</v>
+      </c>
+      <c r="F263" t="s">
+        <v>383</v>
+      </c>
+      <c r="G263" t="s">
+        <v>469</v>
+      </c>
+      <c r="H263" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="27.6">
+      <c r="A264" t="s">
+        <v>8</v>
+      </c>
+      <c r="B264" t="s">
+        <v>381</v>
+      </c>
+      <c r="C264"/>
+      <c r="D264" t="s">
+        <v>470</v>
+      </c>
+      <c r="E264" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="F264" t="s">
+        <v>400</v>
+      </c>
+      <c r="G264" t="s">
+        <v>472</v>
+      </c>
+      <c r="H264" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" ht="41.4">
+      <c r="A265" t="s">
+        <v>8</v>
+      </c>
+      <c r="B265" t="s">
+        <v>9</v>
+      </c>
+      <c r="C265"/>
+      <c r="D265" t="s">
+        <v>473</v>
+      </c>
+      <c r="E265" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="F265" t="s">
+        <v>406</v>
+      </c>
+      <c r="G265" t="s">
+        <v>475</v>
+      </c>
+      <c r="H265" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" t="s">
+        <v>8</v>
+      </c>
+      <c r="B266" t="s">
+        <v>38</v>
+      </c>
+      <c r="C266"/>
+      <c r="D266" t="s">
+        <v>85</v>
+      </c>
+      <c r="E266" t="s">
+        <v>85</v>
+      </c>
+      <c r="F266" t="s">
+        <v>400</v>
+      </c>
+      <c r="G266" t="s">
+        <v>476</v>
+      </c>
+      <c r="H266" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" t="s">
+        <v>16</v>
+      </c>
+      <c r="B267" t="s">
+        <v>17</v>
+      </c>
+      <c r="C267"/>
+      <c r="D267" t="s">
+        <v>477</v>
+      </c>
+      <c r="E267" t="s">
+        <v>478</v>
+      </c>
+      <c r="F267" t="s">
+        <v>406</v>
+      </c>
+      <c r="G267" t="s">
+        <v>479</v>
+      </c>
+      <c r="H267" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="69">
+      <c r="A268" t="s">
+        <v>16</v>
+      </c>
+      <c r="B268" t="s">
+        <v>17</v>
+      </c>
+      <c r="C268"/>
+      <c r="D268" t="s">
+        <v>480</v>
+      </c>
+      <c r="E268" s="26" t="s">
+        <v>667</v>
+      </c>
+      <c r="F268" t="s">
+        <v>387</v>
+      </c>
+      <c r="G268" t="s">
+        <v>481</v>
+      </c>
+      <c r="H268" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" t="s">
+        <v>16</v>
+      </c>
+      <c r="B269" t="s">
+        <v>359</v>
+      </c>
+      <c r="C269"/>
+      <c r="D269" t="s">
+        <v>482</v>
+      </c>
+      <c r="E269" t="s">
+        <v>668</v>
+      </c>
+      <c r="F269" t="s">
+        <v>379</v>
+      </c>
+      <c r="G269" t="s">
+        <v>483</v>
+      </c>
+      <c r="H269" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" t="s">
+        <v>16</v>
+      </c>
+      <c r="B270" t="s">
+        <v>38</v>
+      </c>
+      <c r="C270"/>
+      <c r="D270" t="s">
+        <v>85</v>
+      </c>
+      <c r="E270"/>
+      <c r="F270" t="s">
+        <v>400</v>
+      </c>
+      <c r="G270" t="s">
+        <v>484</v>
+      </c>
+      <c r="H270"/>
+    </row>
+    <row r="271" spans="1:8" ht="69">
+      <c r="A271" t="s">
+        <v>16</v>
+      </c>
+      <c r="B271" t="s">
+        <v>38</v>
+      </c>
+      <c r="C271"/>
+      <c r="D271" t="s">
+        <v>485</v>
+      </c>
+      <c r="E271" s="26" t="s">
+        <v>669</v>
+      </c>
+      <c r="F271" t="s">
+        <v>398</v>
+      </c>
+      <c r="G271" t="s">
+        <v>486</v>
+      </c>
+      <c r="H271" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" t="s">
+        <v>32</v>
+      </c>
+      <c r="B272" t="s">
+        <v>38</v>
+      </c>
+      <c r="C272"/>
+      <c r="D272" t="s">
+        <v>85</v>
+      </c>
+      <c r="E272" t="s">
+        <v>670</v>
+      </c>
+      <c r="F272" t="s">
+        <v>400</v>
+      </c>
+      <c r="G272" t="s">
+        <v>487</v>
+      </c>
+      <c r="H272" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="69">
+      <c r="A273" t="s">
+        <v>32</v>
+      </c>
+      <c r="B273" t="s">
+        <v>9</v>
+      </c>
+      <c r="C273"/>
+      <c r="D273" t="s">
+        <v>488</v>
+      </c>
+      <c r="E273" s="26" t="s">
+        <v>671</v>
+      </c>
+      <c r="F273" t="s">
+        <v>421</v>
+      </c>
+      <c r="G273" t="s">
+        <v>489</v>
+      </c>
+      <c r="H273" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" t="s">
+        <v>32</v>
+      </c>
+      <c r="B274" t="s">
+        <v>23</v>
+      </c>
+      <c r="C274" t="s">
+        <v>363</v>
+      </c>
+      <c r="D274" t="s">
+        <v>490</v>
+      </c>
+      <c r="E274" t="s">
+        <v>676</v>
+      </c>
+      <c r="F274" t="s">
+        <v>387</v>
+      </c>
+      <c r="G274" t="s">
+        <v>491</v>
+      </c>
+      <c r="H274" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" t="s">
+        <v>32</v>
+      </c>
+      <c r="B275" t="s">
+        <v>23</v>
+      </c>
+      <c r="C275" t="s">
+        <v>363</v>
+      </c>
+      <c r="D275" t="s">
+        <v>411</v>
+      </c>
+      <c r="E275" t="s">
+        <v>672</v>
+      </c>
+      <c r="F275" t="s">
+        <v>406</v>
+      </c>
+      <c r="G275" t="s">
+        <v>492</v>
+      </c>
+      <c r="H275" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" t="s">
+        <v>22</v>
+      </c>
+      <c r="B276" t="s">
+        <v>23</v>
+      </c>
+      <c r="C276" t="s">
+        <v>27</v>
+      </c>
+      <c r="D276" t="s">
+        <v>97</v>
+      </c>
+      <c r="E276"/>
+      <c r="F276" t="s">
+        <v>400</v>
+      </c>
+      <c r="G276" t="s">
+        <v>493</v>
+      </c>
+      <c r="H276" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="124.2">
+      <c r="A277" t="s">
+        <v>22</v>
+      </c>
+      <c r="B277" t="s">
+        <v>23</v>
+      </c>
+      <c r="C277" t="s">
+        <v>27</v>
+      </c>
+      <c r="D277" t="s">
+        <v>494</v>
+      </c>
+      <c r="E277" s="26" t="s">
+        <v>673</v>
+      </c>
+      <c r="F277" t="s">
+        <v>383</v>
+      </c>
+      <c r="G277" t="s">
+        <v>495</v>
+      </c>
+      <c r="H277" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" ht="138">
+      <c r="A278" t="s">
+        <v>22</v>
+      </c>
+      <c r="B278" t="s">
+        <v>23</v>
+      </c>
+      <c r="C278" t="s">
+        <v>24</v>
+      </c>
+      <c r="D278" t="s">
+        <v>496</v>
+      </c>
+      <c r="E278" s="26" t="s">
+        <v>677</v>
+      </c>
+      <c r="F278" t="s">
+        <v>406</v>
+      </c>
+      <c r="G278" t="s">
+        <v>497</v>
+      </c>
+      <c r="H278" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" t="s">
+        <v>22</v>
+      </c>
+      <c r="B279" t="s">
+        <v>38</v>
+      </c>
+      <c r="C279" t="s">
+        <v>377</v>
+      </c>
+      <c r="D279" t="s">
+        <v>85</v>
+      </c>
+      <c r="E279"/>
+      <c r="F279" t="s">
+        <v>400</v>
+      </c>
+      <c r="G279" t="s">
+        <v>498</v>
+      </c>
+      <c r="H279" t="s">
         <v>50</v>
       </c>
     </row>
@@ -8840,16 +9398,16 @@
   <autoFilter ref="A1:H227"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8862,1057 +9420,1062 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>460</v>
+        <v>499</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>461</v>
+        <v>500</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>462</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.4" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>463</v>
+        <v>502</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>465</v>
+        <v>504</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>466</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.4" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>463</v>
+        <v>502</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>467</v>
+        <v>506</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>468</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.4" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>463</v>
+        <v>502</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>469</v>
+        <v>508</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>470</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.4" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>463</v>
+        <v>502</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>471</v>
+        <v>510</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>472</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.4" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>463</v>
+        <v>502</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>473</v>
+        <v>512</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>474</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.4" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>475</v>
+        <v>514</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>475</v>
+        <v>514</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.4" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>475</v>
+        <v>514</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>481</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.4" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>475</v>
+        <v>514</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>482</v>
+        <v>521</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>483</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.4" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>475</v>
+        <v>514</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>484</v>
+        <v>523</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>485</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.4" customHeight="1">
       <c r="A12" s="24" t="s">
-        <v>486</v>
+        <v>525</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>487</v>
+        <v>526</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>488</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.4" customHeight="1">
       <c r="A13" s="24" t="s">
-        <v>486</v>
+        <v>525</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>489</v>
+        <v>528</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>490</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.4" customHeight="1">
       <c r="A14" s="24" t="s">
-        <v>486</v>
+        <v>525</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>491</v>
+        <v>530</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>492</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.4" customHeight="1">
       <c r="A15" s="24" t="s">
-        <v>486</v>
+        <v>525</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>493</v>
+        <v>532</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>494</v>
+        <v>533</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.4" customHeight="1">
       <c r="A16" s="24" t="s">
-        <v>495</v>
+        <v>534</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>496</v>
+        <v>535</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.4" customHeight="1">
       <c r="A17" s="24" t="s">
-        <v>495</v>
+        <v>534</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>498</v>
+        <v>537</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>499</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.4" customHeight="1">
       <c r="A18" s="24" t="s">
-        <v>495</v>
+        <v>534</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>500</v>
+        <v>539</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>501</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.4" customHeight="1">
       <c r="A19" s="24" t="s">
-        <v>495</v>
+        <v>534</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>502</v>
+        <v>541</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>503</v>
+        <v>542</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.4" customHeight="1">
       <c r="A20" s="24" t="s">
-        <v>495</v>
+        <v>534</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>504</v>
+        <v>543</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>505</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.4" customHeight="1">
       <c r="A21" s="24" t="s">
-        <v>506</v>
+        <v>545</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>507</v>
+        <v>546</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>508</v>
+        <v>547</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.4" customHeight="1">
       <c r="A22" s="24" t="s">
-        <v>506</v>
+        <v>545</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>509</v>
+        <v>548</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>510</v>
+        <v>549</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.4" customHeight="1">
       <c r="A23" s="24" t="s">
-        <v>506</v>
+        <v>545</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>511</v>
+        <v>550</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>512</v>
+        <v>551</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.4" customHeight="1">
       <c r="A24" s="24" t="s">
-        <v>506</v>
+        <v>545</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>514</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.4" customHeight="1">
       <c r="A25" s="24" t="s">
-        <v>506</v>
+        <v>545</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>515</v>
+        <v>554</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>516</v>
+        <v>555</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.4" customHeight="1">
       <c r="A26" s="24" t="s">
-        <v>517</v>
+        <v>556</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>518</v>
+        <v>557</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>519</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.4" customHeight="1">
       <c r="A27" s="24" t="s">
-        <v>517</v>
+        <v>556</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>520</v>
+        <v>559</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>521</v>
+        <v>560</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.4" customHeight="1">
       <c r="A28" s="24" t="s">
-        <v>517</v>
+        <v>556</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>522</v>
+        <v>561</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>523</v>
+        <v>562</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.4" customHeight="1">
       <c r="A29" s="24" t="s">
-        <v>517</v>
+        <v>556</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>524</v>
+        <v>563</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>525</v>
+        <v>564</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.4" customHeight="1">
       <c r="A30" s="24" t="s">
-        <v>517</v>
+        <v>556</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>526</v>
+        <v>565</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>527</v>
+        <v>566</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="28.8" customHeight="1">
       <c r="A31" s="24" t="s">
-        <v>528</v>
+        <v>567</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>529</v>
+        <v>568</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.4" customHeight="1">
       <c r="A32" s="24" t="s">
-        <v>528</v>
+        <v>567</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>531</v>
+        <v>570</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>532</v>
+        <v>571</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.4" customHeight="1">
       <c r="A33" s="24" t="s">
-        <v>528</v>
+        <v>567</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>533</v>
+        <v>572</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>534</v>
+        <v>573</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.4" customHeight="1">
       <c r="A34" s="24" t="s">
-        <v>528</v>
+        <v>567</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>535</v>
+        <v>574</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>536</v>
+        <v>575</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.4" customHeight="1">
       <c r="A35" s="24" t="s">
-        <v>528</v>
+        <v>567</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>537</v>
+        <v>576</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>538</v>
+        <v>577</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.4" customHeight="1">
       <c r="A36" s="24" t="s">
-        <v>539</v>
+        <v>578</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>540</v>
+        <v>579</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>541</v>
+        <v>580</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.4" customHeight="1">
       <c r="A37" s="24" t="s">
-        <v>539</v>
+        <v>578</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>542</v>
+        <v>581</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>543</v>
+        <v>582</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.4" customHeight="1">
       <c r="A38" s="24" t="s">
-        <v>539</v>
+        <v>578</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>544</v>
+        <v>583</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>545</v>
+        <v>584</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.4" customHeight="1">
       <c r="A39" s="24" t="s">
-        <v>539</v>
+        <v>578</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>546</v>
+        <v>585</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>547</v>
+        <v>586</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.4" customHeight="1">
       <c r="A40" s="24" t="s">
-        <v>539</v>
+        <v>578</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>548</v>
+        <v>587</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>549</v>
+        <v>588</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.4" customHeight="1">
       <c r="A41" s="24" t="s">
-        <v>550</v>
+        <v>589</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>551</v>
+        <v>590</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>552</v>
+        <v>591</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.4" customHeight="1">
       <c r="A42" s="24" t="s">
-        <v>550</v>
+        <v>589</v>
       </c>
       <c r="B42" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>553</v>
+        <v>592</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>554</v>
+        <v>593</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.4" customHeight="1">
       <c r="A43" s="24" t="s">
-        <v>550</v>
+        <v>589</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>555</v>
+        <v>594</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>556</v>
+        <v>595</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.4" customHeight="1">
       <c r="A44" s="24" t="s">
-        <v>550</v>
+        <v>589</v>
       </c>
       <c r="B44" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>557</v>
+        <v>596</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>558</v>
+        <v>597</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.4" customHeight="1">
       <c r="A45" s="24" t="s">
-        <v>550</v>
+        <v>589</v>
       </c>
       <c r="B45" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>559</v>
+        <v>598</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>560</v>
+        <v>599</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.4" customHeight="1">
       <c r="A46" s="24" t="s">
-        <v>561</v>
+        <v>600</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>562</v>
+        <v>601</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>563</v>
+        <v>602</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.4" customHeight="1">
       <c r="A47" s="24" t="s">
-        <v>561</v>
+        <v>600</v>
       </c>
       <c r="B47" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>564</v>
+        <v>603</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>565</v>
+        <v>604</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.4" customHeight="1">
       <c r="A48" s="24" t="s">
-        <v>561</v>
+        <v>600</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>566</v>
+        <v>605</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>567</v>
+        <v>606</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.4" customHeight="1">
       <c r="A49" s="24" t="s">
-        <v>561</v>
+        <v>600</v>
       </c>
       <c r="B49" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>568</v>
+        <v>607</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>569</v>
+        <v>608</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.4" customHeight="1">
       <c r="A50" s="24" t="s">
-        <v>561</v>
+        <v>600</v>
       </c>
       <c r="B50" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>570</v>
+        <v>609</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>571</v>
+        <v>610</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.4" customHeight="1">
       <c r="A51" s="24" t="s">
-        <v>572</v>
+        <v>611</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>573</v>
+        <v>612</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>574</v>
+        <v>613</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14.4" customHeight="1">
       <c r="A52" s="24" t="s">
-        <v>572</v>
+        <v>611</v>
       </c>
       <c r="B52" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>575</v>
+        <v>614</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>576</v>
+        <v>615</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="14.4" customHeight="1">
       <c r="A53" s="24" t="s">
-        <v>572</v>
+        <v>611</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>577</v>
+        <v>616</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>578</v>
+        <v>617</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="14.4" customHeight="1">
       <c r="A54" s="24" t="s">
-        <v>572</v>
+        <v>611</v>
       </c>
       <c r="B54" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>579</v>
+        <v>618</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>580</v>
+        <v>619</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="14.4" customHeight="1">
       <c r="A55" s="24" t="s">
-        <v>572</v>
+        <v>611</v>
       </c>
       <c r="B55" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>568</v>
+        <v>607</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>581</v>
+        <v>620</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="28.8" customHeight="1">
       <c r="A56" s="24" t="s">
-        <v>582</v>
+        <v>621</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>583</v>
+        <v>622</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>584</v>
+        <v>623</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="14.4" customHeight="1">
       <c r="A57" s="24" t="s">
-        <v>582</v>
+        <v>621</v>
       </c>
       <c r="B57" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>586</v>
+        <v>625</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.4" customHeight="1">
       <c r="A58" s="24" t="s">
-        <v>582</v>
+        <v>621</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>588</v>
+        <v>627</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.4" customHeight="1">
       <c r="A59" s="24" t="s">
-        <v>582</v>
+        <v>621</v>
       </c>
       <c r="B59" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>589</v>
+        <v>628</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>590</v>
+        <v>629</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.4" customHeight="1">
       <c r="A60" s="24" t="s">
-        <v>582</v>
+        <v>621</v>
       </c>
       <c r="B60" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>591</v>
+        <v>630</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>592</v>
+        <v>631</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.4" customHeight="1">
       <c r="A61" s="14" t="s">
-        <v>593</v>
+        <v>632</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>594</v>
+        <v>633</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>595</v>
+        <v>634</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.4" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>593</v>
+        <v>632</v>
       </c>
       <c r="B62" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>596</v>
+        <v>635</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>597</v>
+        <v>636</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.4" customHeight="1">
       <c r="A63" s="14" t="s">
-        <v>593</v>
+        <v>632</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>598</v>
+        <v>637</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>599</v>
+        <v>638</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.4" customHeight="1">
       <c r="A64" s="14" t="s">
-        <v>593</v>
+        <v>632</v>
       </c>
       <c r="B64" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>600</v>
+        <v>639</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>601</v>
+        <v>640</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="14.4" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>593</v>
+        <v>632</v>
       </c>
       <c r="B65" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>602</v>
+        <v>641</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="14.4" customHeight="1">
       <c r="A66" s="24" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>605</v>
+        <v>644</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="14.4" customHeight="1">
       <c r="A67" s="24" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
       <c r="B67" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="14.4" customHeight="1">
       <c r="A68" s="24" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="14.4" customHeight="1">
       <c r="A69" s="24" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
       <c r="B69" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>611</v>
+        <v>650</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>612</v>
+        <v>651</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.4" customHeight="1">
       <c r="A70" s="24" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
       <c r="B70" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>613</v>
+        <v>652</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="14.4">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="14.4" customHeight="1">
       <c r="A71" s="24" t="s">
-        <v>615</v>
+        <v>654</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>624</v>
+        <v>655</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="14.4">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="14.4" customHeight="1">
       <c r="A72" s="24" t="s">
-        <v>615</v>
+        <v>654</v>
       </c>
       <c r="B72" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="14.4">
+        <v>657</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="14.4" customHeight="1">
       <c r="A73" s="24" t="s">
-        <v>615</v>
+        <v>654</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="14.4">
+      <c r="C73" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="14.4" customHeight="1">
       <c r="A74" s="24" t="s">
-        <v>615</v>
+        <v>654</v>
       </c>
       <c r="B74" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="14.4">
+      <c r="C74" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="14.4" customHeight="1">
       <c r="A75" s="24" t="s">
-        <v>615</v>
+        <v>654</v>
       </c>
       <c r="B75" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>621</v>
+      <c r="C75" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="14.4">
+      <c r="A76" s="24" t="s">
+        <v>665</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>